--- a/PES/Office salaries/May Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/May Salary Sheet New (2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3AA728-9050-4ED7-B72C-8BF6948818A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304B1F62-55BD-4F68-A1FA-CAD07BEA49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary Sheets" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -1110,6 +1110,9 @@
   <si>
     <t>Talha Siddiqui</t>
   </si>
+  <si>
+    <t>Engr Amir</t>
+  </si>
 </sst>
 </file>
 
@@ -1656,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2089,50 +2092,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="461">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3367,13 +3333,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3859,7 +3822,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
@@ -7485,7 +7448,7 @@
       </c>
       <c r="D70" s="142">
         <f>SUM(Q46:Q95)</f>
-        <v>5624235.8870967738</v>
+        <v>5679760.0806451607</v>
       </c>
       <c r="E70" s="200">
         <f>'Salary Record'!K611</f>
@@ -7844,7 +7807,7 @@
       </c>
       <c r="D77" s="144">
         <f>SUM(Q27:Q88)</f>
-        <v>4238725.8064516122</v>
+        <v>4275741.9354838701</v>
       </c>
       <c r="E77" s="200">
         <f>'Salary Record'!K723</f>
@@ -8140,7 +8103,7 @@
       <c r="D82" s="135"/>
       <c r="E82" s="66">
         <f>'Salary Record'!K114</f>
-        <v>43000</v>
+        <v>60000</v>
       </c>
       <c r="F82" s="66">
         <f>'Salary Record'!C120</f>
@@ -8160,11 +8123,11 @@
       </c>
       <c r="J82" s="175">
         <f>'Salary Record'!K119</f>
-        <v>3814.5161290322576</v>
+        <v>5322.5806451612907</v>
       </c>
       <c r="K82" s="175">
         <f>'Salary Record'!K120</f>
-        <v>46814.516129032258</v>
+        <v>65322.580645161288</v>
       </c>
       <c r="L82" s="176">
         <f>'Salary Record'!G118</f>
@@ -8188,7 +8151,7 @@
       </c>
       <c r="Q82" s="180">
         <f>'Salary Record'!K122</f>
-        <v>41814.516129032258</v>
+        <v>60322.580645161288</v>
       </c>
       <c r="R82" s="117" t="s">
         <v>113</v>
@@ -8545,7 +8508,7 @@
       <c r="D88" s="227"/>
       <c r="E88" s="231">
         <f>SUM(E76:E87)</f>
-        <v>612000</v>
+        <v>629000</v>
       </c>
       <c r="F88" s="227"/>
       <c r="G88" s="227"/>
@@ -8553,11 +8516,11 @@
       <c r="I88" s="227"/>
       <c r="J88" s="231">
         <f>SUM(J76:J87)</f>
-        <v>62084.677419354841</v>
+        <v>63592.741935483871</v>
       </c>
       <c r="K88" s="231">
         <f>SUM(K76:K87)</f>
-        <v>596600.80645161285</v>
+        <v>615108.87096774182</v>
       </c>
       <c r="L88" s="227"/>
       <c r="M88" s="227"/>
@@ -8566,7 +8529,7 @@
       <c r="P88" s="227"/>
       <c r="Q88" s="201">
         <f>SUM(Q76:Q87)</f>
-        <v>573600.80645161285</v>
+        <v>592108.87096774182</v>
       </c>
       <c r="R88" s="202"/>
       <c r="T88" s="204"/>
@@ -8602,7 +8565,7 @@
       <c r="D90" s="221"/>
       <c r="E90" s="232">
         <f>SUM(E4+E5+E73+E53+E45+E34+E27+E20+E11+E88)</f>
-        <v>2495500</v>
+        <v>2512500</v>
       </c>
       <c r="F90" s="221"/>
       <c r="G90" s="221"/>
@@ -8610,7 +8573,7 @@
       <c r="I90" s="221"/>
       <c r="J90" s="232">
         <f>SUM(J4+J5+J73+J53+J45+J34+J27+J20+J11+J88)</f>
-        <v>273856.8548387097</v>
+        <v>275364.91935483873</v>
       </c>
       <c r="K90" s="222"/>
       <c r="L90" s="206">
@@ -8635,7 +8598,7 @@
       </c>
       <c r="Q90" s="205">
         <f>SUM(Q4+Q5++Q73+Q53+Q45+Q34+Q27+Q20+Q11+Q88)+28000</f>
-        <v>2493042.3387096776</v>
+        <v>2511550.4032258065</v>
       </c>
       <c r="R90" s="79"/>
       <c r="S90" s="8"/>
@@ -9273,7 +9236,7 @@
       <c r="D113" s="83"/>
       <c r="E113" s="83">
         <f>Q88</f>
-        <v>573600.80645161285</v>
+        <v>592108.87096774182</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="8"/>
@@ -9347,7 +9310,7 @@
       </c>
       <c r="E116" s="81">
         <f>SUM(E102:E115)</f>
-        <v>2700364.9193548388</v>
+        <v>2718872.9838709678</v>
       </c>
       <c r="F116"/>
       <c r="G116"/>
@@ -9691,8 +9654,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC877"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A357" zoomScale="118" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367:L380"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A104" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -15018,8 +14981,8 @@
         <v>1</v>
       </c>
       <c r="K114" s="278">
-        <f>35000+3000+5000</f>
-        <v>43000</v>
+        <f>35000+3000+5000+17000</f>
+        <v>60000</v>
       </c>
       <c r="L114" s="279"/>
       <c r="N114" s="35"/>
@@ -15245,7 +15208,7 @@
       </c>
       <c r="K118" s="291">
         <f>K114/$K$2*I118</f>
-        <v>43000</v>
+        <v>60000</v>
       </c>
       <c r="L118" s="292"/>
       <c r="N118" s="35"/>
@@ -15308,7 +15271,7 @@
       </c>
       <c r="K119" s="294">
         <f>K114/$K$2/8*I119</f>
-        <v>3814.5161290322576</v>
+        <v>5322.5806451612907</v>
       </c>
       <c r="L119" s="295"/>
       <c r="N119" s="35"/>
@@ -15363,7 +15326,7 @@
       <c r="J120" s="395"/>
       <c r="K120" s="294">
         <f>K118+K119</f>
-        <v>46814.516129032258</v>
+        <v>65322.580645161288</v>
       </c>
       <c r="L120" s="295"/>
       <c r="N120" s="35"/>
@@ -15473,7 +15436,7 @@
       <c r="J122" s="396"/>
       <c r="K122" s="229">
         <f>K120-K121</f>
-        <v>41814.516129032258</v>
+        <v>60322.580645161288</v>
       </c>
       <c r="L122" s="297"/>
       <c r="N122" s="35"/>
@@ -15945,7 +15908,7 @@
       <c r="Z132" s="40"/>
       <c r="AB132" s="65">
         <f>K137+K122</f>
-        <v>87709.677419354848</v>
+        <v>106217.74193548388</v>
       </c>
     </row>
     <row r="133" spans="1:28" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -52939,14 +52902,14 @@
       <c r="O12" s="111"/>
       <c r="P12" s="111">
         <f>'Salary Sheets'!Q88</f>
-        <v>573600.80645161285</v>
+        <v>592108.87096774182</v>
       </c>
       <c r="Q12" s="111">
         <v>254832.25806451612</v>
       </c>
       <c r="R12" s="111">
         <f t="shared" si="0"/>
-        <v>-318768.54838709673</v>
+        <v>-337276.6129032257</v>
       </c>
       <c r="S12" s="69"/>
       <c r="T12" s="11"/>
@@ -53217,10 +53180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54249,11 +54212,11 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="361" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="460"/>
+      <c r="B63" s="459"/>
       <c r="C63" s="362">
         <v>35000</v>
       </c>
@@ -54263,6 +54226,22 @@
       <c r="E63" s="314">
         <f t="shared" si="3"/>
         <v>40000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="361" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="459"/>
+      <c r="C64" s="362">
+        <v>43000</v>
+      </c>
+      <c r="D64" s="314">
+        <v>17000</v>
+      </c>
+      <c r="E64" s="314">
+        <f t="shared" ref="E64" si="4">D64+C64</f>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -54272,7 +54251,7 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B59:B64"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B3:B6"/>

--- a/PES/Office salaries/May Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/May Salary Sheet New (2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304B1F62-55BD-4F68-A1FA-CAD07BEA49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4564F2-0672-434D-8B00-0FFD160D4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary Sheets" sheetId="1" r:id="rId1"/>
@@ -3051,39 +3051,6 @@
     <xf numFmtId="0" fontId="66" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="28" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3123,6 +3090,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3139,6 +3124,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3183,13 +3183,22 @@
     <xf numFmtId="0" fontId="59" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3201,6 +3210,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3210,13 +3228,19 @@
     <xf numFmtId="0" fontId="60" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3234,41 +3258,41 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3283,9 +3307,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3317,27 +3338,6 @@
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3822,7 +3822,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
@@ -3856,27 +3856,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="214" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="368" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="377" t="str">
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
+      <c r="N1" s="366" t="str">
         <f>'Salary Record'!J1</f>
         <v>May</v>
       </c>
-      <c r="O1" s="377"/>
-      <c r="P1" s="377">
+      <c r="O1" s="366"/>
+      <c r="P1" s="366">
         <f>'Salary Record'!K1</f>
         <v>2024</v>
       </c>
@@ -3885,22 +3885,22 @@
       <c r="T1" s="215"/>
     </row>
     <row r="2" spans="1:20" s="214" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="381"/>
-      <c r="B2" s="382"/>
-      <c r="C2" s="382"/>
-      <c r="D2" s="382"/>
-      <c r="E2" s="382"/>
-      <c r="F2" s="382"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="382"/>
-      <c r="L2" s="382"/>
-      <c r="M2" s="382"/>
-      <c r="N2" s="378"/>
-      <c r="O2" s="378"/>
-      <c r="P2" s="378"/>
+      <c r="A2" s="370"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="371"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
       <c r="Q2" s="217"/>
       <c r="R2" s="213"/>
       <c r="T2" s="215"/>
@@ -4012,25 +4012,25 @@
       <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="364" t="s">
+      <c r="A6" s="377" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="365"/>
-      <c r="C6" s="365"/>
-      <c r="D6" s="365"/>
-      <c r="E6" s="365"/>
-      <c r="F6" s="365"/>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
-      <c r="N6" s="365"/>
-      <c r="O6" s="365"/>
-      <c r="P6" s="365"/>
-      <c r="Q6" s="366"/>
+      <c r="B6" s="378"/>
+      <c r="C6" s="378"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="378"/>
+      <c r="K6" s="378"/>
+      <c r="L6" s="378"/>
+      <c r="M6" s="378"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="379"/>
       <c r="R6" s="78"/>
     </row>
     <row r="7" spans="1:20" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -4040,10 +4040,10 @@
       <c r="B7" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="388" t="s">
+      <c r="C7" s="383" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="391">
+      <c r="D7" s="386">
         <f>SUM(Q7:Q10)</f>
         <v>0</v>
       </c>
@@ -4075,8 +4075,8 @@
       <c r="B8" s="310" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="389"/>
-      <c r="D8" s="392"/>
+      <c r="C8" s="384"/>
+      <c r="D8" s="387"/>
       <c r="E8" s="66">
         <v>25000</v>
       </c>
@@ -4105,8 +4105,8 @@
       <c r="B9" s="310" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="389"/>
-      <c r="D9" s="392"/>
+      <c r="C9" s="384"/>
+      <c r="D9" s="387"/>
       <c r="E9" s="66">
         <v>20000</v>
       </c>
@@ -4134,8 +4134,8 @@
       <c r="B10" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="390"/>
-      <c r="D10" s="393"/>
+      <c r="C10" s="385"/>
+      <c r="D10" s="388"/>
       <c r="E10" s="66">
         <v>15000</v>
       </c>
@@ -4157,10 +4157,10 @@
       <c r="T10" s="120"/>
     </row>
     <row r="11" spans="1:20" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="367" t="s">
+      <c r="A11" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="368"/>
+      <c r="B11" s="390"/>
       <c r="C11" s="227"/>
       <c r="D11" s="227"/>
       <c r="E11" s="229">
@@ -4207,25 +4207,25 @@
       <c r="T12" s="226"/>
     </row>
     <row r="13" spans="1:20" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="372" t="s">
+      <c r="A13" s="380" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="373"/>
-      <c r="O13" s="373"/>
-      <c r="P13" s="373"/>
-      <c r="Q13" s="374"/>
+      <c r="B13" s="381"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="381"/>
+      <c r="E13" s="381"/>
+      <c r="F13" s="381"/>
+      <c r="G13" s="381"/>
+      <c r="H13" s="381"/>
+      <c r="I13" s="381"/>
+      <c r="J13" s="381"/>
+      <c r="K13" s="381"/>
+      <c r="L13" s="381"/>
+      <c r="M13" s="381"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="381"/>
+      <c r="P13" s="381"/>
+      <c r="Q13" s="382"/>
       <c r="R13" s="157"/>
       <c r="T13" s="159"/>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="D16" s="124">
         <f>SUM(Q16:Q45)</f>
-        <v>1670564.5161290325</v>
+        <v>1684677.4193548388</v>
       </c>
       <c r="E16" s="66">
         <f>'Salary Record'!K9</f>
@@ -4625,10 +4625,10 @@
       <c r="T19" s="119"/>
     </row>
     <row r="20" spans="1:22" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="367" t="s">
+      <c r="A20" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="368"/>
+      <c r="B20" s="390"/>
       <c r="C20" s="227"/>
       <c r="D20" s="227"/>
       <c r="E20" s="229">
@@ -4682,25 +4682,25 @@
       <c r="T21" s="226"/>
     </row>
     <row r="22" spans="1:22" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="364" t="s">
+      <c r="A22" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="365"/>
-      <c r="C22" s="365"/>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="365"/>
-      <c r="H22" s="365"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
-      <c r="K22" s="365"/>
-      <c r="L22" s="365"/>
-      <c r="M22" s="365"/>
-      <c r="N22" s="365"/>
-      <c r="O22" s="365"/>
-      <c r="P22" s="365"/>
-      <c r="Q22" s="366"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="378"/>
+      <c r="I22" s="378"/>
+      <c r="J22" s="378"/>
+      <c r="K22" s="378"/>
+      <c r="L22" s="378"/>
+      <c r="M22" s="378"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="378"/>
+      <c r="P22" s="378"/>
+      <c r="Q22" s="379"/>
       <c r="R22" s="154"/>
       <c r="S22" s="160"/>
       <c r="T22" s="156"/>
@@ -4974,10 +4974,10 @@
       <c r="V26" s="315"/>
     </row>
     <row r="27" spans="1:22" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="367" t="s">
+      <c r="A27" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="368"/>
+      <c r="B27" s="390"/>
       <c r="C27" s="227"/>
       <c r="D27" s="227"/>
       <c r="E27" s="229">
@@ -5035,25 +5035,25 @@
       <c r="T28" s="226"/>
     </row>
     <row r="29" spans="1:22" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="372" t="s">
+      <c r="A29" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="373"/>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="373"/>
-      <c r="I29" s="373"/>
-      <c r="J29" s="373"/>
-      <c r="K29" s="373"/>
-      <c r="L29" s="373"/>
-      <c r="M29" s="373"/>
-      <c r="N29" s="373"/>
-      <c r="O29" s="373"/>
-      <c r="P29" s="373"/>
-      <c r="Q29" s="374"/>
+      <c r="B29" s="381"/>
+      <c r="C29" s="381"/>
+      <c r="D29" s="381"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="381"/>
+      <c r="G29" s="381"/>
+      <c r="H29" s="381"/>
+      <c r="I29" s="381"/>
+      <c r="J29" s="381"/>
+      <c r="K29" s="381"/>
+      <c r="L29" s="381"/>
+      <c r="M29" s="381"/>
+      <c r="N29" s="381"/>
+      <c r="O29" s="381"/>
+      <c r="P29" s="381"/>
+      <c r="Q29" s="382"/>
       <c r="R29" s="245"/>
       <c r="T29" s="159"/>
     </row>
@@ -5323,10 +5323,10 @@
       <c r="S33" s="117"/>
     </row>
     <row r="34" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="368"/>
+      <c r="B34" s="390"/>
       <c r="C34" s="227"/>
       <c r="D34" s="227"/>
       <c r="E34" s="229">
@@ -5380,29 +5380,29 @@
       <c r="T35" s="226"/>
     </row>
     <row r="36" spans="1:24" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="369" t="s">
+      <c r="A36" s="391" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="370"/>
-      <c r="C36" s="370"/>
-      <c r="D36" s="370"/>
-      <c r="E36" s="370"/>
-      <c r="F36" s="370"/>
-      <c r="G36" s="370"/>
-      <c r="H36" s="370"/>
-      <c r="I36" s="370"/>
-      <c r="J36" s="370"/>
-      <c r="K36" s="370"/>
-      <c r="L36" s="370"/>
-      <c r="M36" s="370"/>
-      <c r="N36" s="370"/>
-      <c r="O36" s="370"/>
-      <c r="P36" s="370"/>
-      <c r="Q36" s="371"/>
+      <c r="B36" s="392"/>
+      <c r="C36" s="392"/>
+      <c r="D36" s="392"/>
+      <c r="E36" s="392"/>
+      <c r="F36" s="392"/>
+      <c r="G36" s="392"/>
+      <c r="H36" s="392"/>
+      <c r="I36" s="392"/>
+      <c r="J36" s="392"/>
+      <c r="K36" s="392"/>
+      <c r="L36" s="392"/>
+      <c r="M36" s="392"/>
+      <c r="N36" s="392"/>
+      <c r="O36" s="392"/>
+      <c r="P36" s="392"/>
+      <c r="Q36" s="393"/>
       <c r="R36" s="161"/>
       <c r="S36" s="162">
         <f>Q37+Q41+Q42+Q43+Q86</f>
-        <v>227245.96774193546</v>
+        <v>234302.4193548387</v>
       </c>
       <c r="T36" s="163"/>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H41" s="200">
         <f>'Salary Record'!I631</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I41" s="200">
         <f>'Salary Record'!I630</f>
@@ -5719,11 +5719,11 @@
       </c>
       <c r="J41" s="175">
         <f>'Salary Record'!K631</f>
-        <v>4233.8709677419356</v>
+        <v>11290.322580645161</v>
       </c>
       <c r="K41" s="175">
         <f>'Salary Record'!K632</f>
-        <v>30201.612903225807</v>
+        <v>37258.06451612903</v>
       </c>
       <c r="L41" s="176">
         <f>'Salary Record'!G630</f>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="Q41" s="182">
         <f>'Salary Record'!K634</f>
-        <v>29201.612903225807</v>
+        <v>36258.06451612903</v>
       </c>
       <c r="R41" s="117"/>
       <c r="T41" s="119"/>
@@ -5964,10 +5964,10 @@
       <c r="X44" s="119"/>
     </row>
     <row r="45" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="367" t="s">
+      <c r="A45" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="368"/>
+      <c r="B45" s="390"/>
       <c r="C45" s="227"/>
       <c r="D45" s="227"/>
       <c r="E45" s="229">
@@ -5980,11 +5980,11 @@
       <c r="I45" s="227"/>
       <c r="J45" s="229">
         <f>SUM(J37:J44)</f>
-        <v>66350.806451612894</v>
+        <v>73407.258064516122</v>
       </c>
       <c r="K45" s="229">
         <f>SUM(K37:K44)</f>
-        <v>379995.96774193546</v>
+        <v>387052.41935483873</v>
       </c>
       <c r="L45" s="227"/>
       <c r="M45" s="227"/>
@@ -5993,31 +5993,31 @@
       <c r="P45" s="227"/>
       <c r="Q45" s="201">
         <f>SUM(Q37:Q44)</f>
-        <v>348995.96774193551</v>
+        <v>356052.41935483867</v>
       </c>
       <c r="R45" s="202"/>
       <c r="T45" s="204"/>
     </row>
     <row r="46" spans="1:24" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="364" t="s">
+      <c r="A46" s="377" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="365"/>
-      <c r="C46" s="365"/>
-      <c r="D46" s="365"/>
-      <c r="E46" s="365"/>
-      <c r="F46" s="365"/>
-      <c r="G46" s="365"/>
-      <c r="H46" s="365"/>
-      <c r="I46" s="365"/>
-      <c r="J46" s="365"/>
-      <c r="K46" s="365"/>
-      <c r="L46" s="365"/>
-      <c r="M46" s="365"/>
-      <c r="N46" s="365"/>
-      <c r="O46" s="365"/>
-      <c r="P46" s="365"/>
-      <c r="Q46" s="366"/>
+      <c r="B46" s="378"/>
+      <c r="C46" s="378"/>
+      <c r="D46" s="378"/>
+      <c r="E46" s="378"/>
+      <c r="F46" s="378"/>
+      <c r="G46" s="378"/>
+      <c r="H46" s="378"/>
+      <c r="I46" s="378"/>
+      <c r="J46" s="378"/>
+      <c r="K46" s="378"/>
+      <c r="L46" s="378"/>
+      <c r="M46" s="378"/>
+      <c r="N46" s="378"/>
+      <c r="O46" s="378"/>
+      <c r="P46" s="378"/>
+      <c r="Q46" s="379"/>
       <c r="R46" s="165"/>
       <c r="S46" s="160"/>
       <c r="T46" s="156"/>
@@ -6431,10 +6431,10 @@
       <c r="T52" s="125"/>
     </row>
     <row r="53" spans="1:23" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="367" t="s">
+      <c r="A53" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="368"/>
+      <c r="B53" s="390"/>
       <c r="C53" s="227"/>
       <c r="D53" s="227"/>
       <c r="E53" s="229">
@@ -6487,25 +6487,25 @@
       <c r="T54" s="226"/>
     </row>
     <row r="55" spans="1:23" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="364" t="s">
+      <c r="A55" s="377" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="365"/>
-      <c r="C55" s="365"/>
-      <c r="D55" s="365"/>
-      <c r="E55" s="365"/>
-      <c r="F55" s="365"/>
-      <c r="G55" s="365"/>
-      <c r="H55" s="365"/>
-      <c r="I55" s="365"/>
-      <c r="J55" s="365"/>
-      <c r="K55" s="365"/>
-      <c r="L55" s="365"/>
-      <c r="M55" s="365"/>
-      <c r="N55" s="365"/>
-      <c r="O55" s="365"/>
-      <c r="P55" s="365"/>
-      <c r="Q55" s="366"/>
+      <c r="B55" s="378"/>
+      <c r="C55" s="378"/>
+      <c r="D55" s="378"/>
+      <c r="E55" s="378"/>
+      <c r="F55" s="378"/>
+      <c r="G55" s="378"/>
+      <c r="H55" s="378"/>
+      <c r="I55" s="378"/>
+      <c r="J55" s="378"/>
+      <c r="K55" s="378"/>
+      <c r="L55" s="378"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="378"/>
+      <c r="O55" s="378"/>
+      <c r="P55" s="378"/>
+      <c r="Q55" s="379"/>
       <c r="R55" s="165"/>
       <c r="S55" s="160"/>
       <c r="T55" s="156"/>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D70" s="142">
         <f>SUM(Q46:Q95)</f>
-        <v>5679760.0806451607</v>
+        <v>5686816.5322580636</v>
       </c>
       <c r="E70" s="200">
         <f>'Salary Record'!K611</f>
@@ -7642,10 +7642,10 @@
       <c r="T72" s="326"/>
     </row>
     <row r="73" spans="1:21" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="367" t="s">
+      <c r="A73" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="368"/>
+      <c r="B73" s="390"/>
       <c r="C73" s="227"/>
       <c r="D73" s="227"/>
       <c r="E73" s="229">
@@ -7704,25 +7704,25 @@
       <c r="U74" s="225"/>
     </row>
     <row r="75" spans="1:21" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="372" t="s">
+      <c r="A75" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="373"/>
-      <c r="C75" s="373"/>
-      <c r="D75" s="373"/>
-      <c r="E75" s="373"/>
-      <c r="F75" s="373"/>
-      <c r="G75" s="373"/>
-      <c r="H75" s="373"/>
-      <c r="I75" s="373"/>
-      <c r="J75" s="373"/>
-      <c r="K75" s="373"/>
-      <c r="L75" s="373"/>
-      <c r="M75" s="373"/>
-      <c r="N75" s="373"/>
-      <c r="O75" s="373"/>
-      <c r="P75" s="373"/>
-      <c r="Q75" s="374"/>
+      <c r="B75" s="381"/>
+      <c r="C75" s="381"/>
+      <c r="D75" s="381"/>
+      <c r="E75" s="381"/>
+      <c r="F75" s="381"/>
+      <c r="G75" s="381"/>
+      <c r="H75" s="381"/>
+      <c r="I75" s="381"/>
+      <c r="J75" s="381"/>
+      <c r="K75" s="381"/>
+      <c r="L75" s="381"/>
+      <c r="M75" s="381"/>
+      <c r="N75" s="381"/>
+      <c r="O75" s="381"/>
+      <c r="P75" s="381"/>
+      <c r="Q75" s="382"/>
       <c r="R75" s="157"/>
       <c r="S75" s="218"/>
       <c r="T75" s="159"/>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="D77" s="144">
         <f>SUM(Q27:Q88)</f>
-        <v>4275741.9354838701</v>
+        <v>4289854.8387096766</v>
       </c>
       <c r="E77" s="200">
         <f>'Salary Record'!K723</f>
@@ -8500,10 +8500,10 @@
       <c r="T87" s="119"/>
     </row>
     <row r="88" spans="1:24" s="203" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="367" t="s">
+      <c r="A88" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="368"/>
+      <c r="B88" s="390"/>
       <c r="C88" s="227"/>
       <c r="D88" s="227"/>
       <c r="E88" s="231">
@@ -8557,10 +8557,10 @@
       <c r="T89" s="261"/>
     </row>
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="383" t="s">
+      <c r="A90" s="372" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="384"/>
+      <c r="B90" s="373"/>
       <c r="C90" s="221"/>
       <c r="D90" s="221"/>
       <c r="E90" s="232">
@@ -8573,7 +8573,7 @@
       <c r="I90" s="221"/>
       <c r="J90" s="232">
         <f>SUM(J4+J5+J73+J53+J45+J34+J27+J20+J11+J88)</f>
-        <v>275364.91935483873</v>
+        <v>282421.37096774194</v>
       </c>
       <c r="K90" s="222"/>
       <c r="L90" s="206">
@@ -8598,55 +8598,55 @@
       </c>
       <c r="Q90" s="205">
         <f>SUM(Q4+Q5++Q73+Q53+Q45+Q34+Q27+Q20+Q11+Q88)+28000</f>
-        <v>2511550.4032258065</v>
+        <v>2518606.8548387093</v>
       </c>
       <c r="R90" s="79"/>
       <c r="S90" s="8"/>
       <c r="U90" s="325"/>
     </row>
     <row r="91" spans="1:24" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="385" t="s">
+      <c r="A91" s="374" t="s">
         <v>167</v>
       </c>
-      <c r="B91" s="386"/>
-      <c r="C91" s="386"/>
-      <c r="D91" s="386"/>
-      <c r="E91" s="386"/>
-      <c r="F91" s="386"/>
-      <c r="G91" s="386"/>
-      <c r="H91" s="386"/>
-      <c r="I91" s="386"/>
-      <c r="J91" s="386"/>
-      <c r="K91" s="386"/>
-      <c r="L91" s="386"/>
-      <c r="M91" s="386"/>
-      <c r="N91" s="386"/>
-      <c r="O91" s="386"/>
-      <c r="P91" s="387"/>
+      <c r="B91" s="375"/>
+      <c r="C91" s="375"/>
+      <c r="D91" s="375"/>
+      <c r="E91" s="375"/>
+      <c r="F91" s="375"/>
+      <c r="G91" s="375"/>
+      <c r="H91" s="375"/>
+      <c r="I91" s="375"/>
+      <c r="J91" s="375"/>
+      <c r="K91" s="375"/>
+      <c r="L91" s="375"/>
+      <c r="M91" s="375"/>
+      <c r="N91" s="375"/>
+      <c r="O91" s="375"/>
+      <c r="P91" s="376"/>
       <c r="Q91" s="93"/>
       <c r="R91" s="79"/>
       <c r="S91" s="8"/>
       <c r="U91" s="8"/>
     </row>
     <row r="92" spans="1:24" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="385" t="s">
+      <c r="A92" s="374" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="386"/>
-      <c r="C92" s="386"/>
-      <c r="D92" s="386"/>
-      <c r="E92" s="386"/>
-      <c r="F92" s="386"/>
-      <c r="G92" s="386"/>
-      <c r="H92" s="386"/>
-      <c r="I92" s="386"/>
-      <c r="J92" s="386"/>
-      <c r="K92" s="386"/>
-      <c r="L92" s="386"/>
-      <c r="M92" s="386"/>
-      <c r="N92" s="386"/>
-      <c r="O92" s="386"/>
-      <c r="P92" s="387"/>
+      <c r="B92" s="375"/>
+      <c r="C92" s="375"/>
+      <c r="D92" s="375"/>
+      <c r="E92" s="375"/>
+      <c r="F92" s="375"/>
+      <c r="G92" s="375"/>
+      <c r="H92" s="375"/>
+      <c r="I92" s="375"/>
+      <c r="J92" s="375"/>
+      <c r="K92" s="375"/>
+      <c r="L92" s="375"/>
+      <c r="M92" s="375"/>
+      <c r="N92" s="375"/>
+      <c r="O92" s="375"/>
+      <c r="P92" s="376"/>
       <c r="Q92" s="93"/>
       <c r="R92" s="79"/>
       <c r="S92" s="8"/>
@@ -8939,19 +8939,19 @@
       <c r="S99" s="8"/>
     </row>
     <row r="100" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B100" s="375" t="s">
+      <c r="B100" s="364" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="376"/>
-      <c r="D100" s="376"/>
-      <c r="E100" s="376"/>
-      <c r="F100" s="376"/>
-      <c r="G100" s="376"/>
-      <c r="H100" s="376"/>
-      <c r="I100" s="376"/>
-      <c r="J100" s="376"/>
-      <c r="K100" s="376"/>
-      <c r="L100" s="376"/>
+      <c r="C100" s="365"/>
+      <c r="D100" s="365"/>
+      <c r="E100" s="365"/>
+      <c r="F100" s="365"/>
+      <c r="G100" s="365"/>
+      <c r="H100" s="365"/>
+      <c r="I100" s="365"/>
+      <c r="J100" s="365"/>
+      <c r="K100" s="365"/>
+      <c r="L100" s="365"/>
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
@@ -9168,7 +9168,7 @@
       <c r="D110" s="83"/>
       <c r="E110" s="83">
         <f>Q45</f>
-        <v>348995.96774193551</v>
+        <v>356052.41935483867</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="69"/>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="E116" s="81">
         <f>SUM(E102:E115)</f>
-        <v>2718872.9838709678</v>
+        <v>2725929.4354838706</v>
       </c>
       <c r="F116"/>
       <c r="G116"/>
@@ -9607,6 +9607,15 @@
   </sheetData>
   <autoFilter ref="A3:X116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="25">
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A46:Q46"/>
     <mergeCell ref="B100:L100"/>
     <mergeCell ref="N1:O2"/>
     <mergeCell ref="A1:M2"/>
@@ -9623,15 +9632,6 @@
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A46:Q46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9654,8 +9654,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC877"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A104" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F616" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="K635" sqref="K635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9694,15 +9694,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C1" s="432" t="s">
+      <c r="C1" s="423" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-      <c r="H1" s="432"/>
-      <c r="I1" s="432"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
+      <c r="H1" s="423"/>
+      <c r="I1" s="423"/>
       <c r="J1" s="269" t="s">
         <v>46</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="X3" s="351">
         <f>K63+K78+K93+K108+K123+K138+K153+K168+K183+K198+K213+K228+K243+K258+K273+K288+K303+K318+K333+K348+K363+K378+K393+K408+K424+K439+K454+K469+K484+K499+K514+K529+K544+K559+K574+K589+K604+K635+K650+K666+K682+K698+K713+K728+K744+K760+K775+K790+K807+K823+K839</f>
-        <v>0</v>
+        <v>7058.0645161290304</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9825,20 +9825,20 @@
       <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="408" t="s">
+      <c r="A7" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="409"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="409"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="409"/>
-      <c r="G7" s="409"/>
-      <c r="H7" s="409"/>
-      <c r="I7" s="409"/>
-      <c r="J7" s="409"/>
-      <c r="K7" s="409"/>
-      <c r="L7" s="410"/>
+      <c r="B7" s="418"/>
+      <c r="C7" s="418"/>
+      <c r="D7" s="418"/>
+      <c r="E7" s="418"/>
+      <c r="F7" s="418"/>
+      <c r="G7" s="418"/>
+      <c r="H7" s="418"/>
+      <c r="I7" s="418"/>
+      <c r="J7" s="418"/>
+      <c r="K7" s="418"/>
+      <c r="L7" s="419"/>
       <c r="M7" s="24"/>
       <c r="N7" s="28"/>
       <c r="O7" s="401" t="s">
@@ -10026,16 +10026,16 @@
       <c r="C11" s="283"/>
       <c r="D11" s="270"/>
       <c r="E11" s="270"/>
-      <c r="F11" s="411" t="s">
+      <c r="F11" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="413"/>
+      <c r="G11" s="416"/>
       <c r="H11" s="270"/>
-      <c r="I11" s="411" t="s">
+      <c r="I11" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="412"/>
-      <c r="K11" s="413"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="416"/>
       <c r="L11" s="284"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36" t="s">
@@ -10367,10 +10367,10 @@
         <v/>
       </c>
       <c r="H17" s="270"/>
-      <c r="I17" s="411" t="s">
+      <c r="I17" s="414" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="413"/>
+      <c r="J17" s="416"/>
       <c r="K17" s="229">
         <f>K15-K16</f>
         <v>75000</v>
@@ -10561,37 +10561,37 @@
       <c r="Z21" s="57"/>
     </row>
     <row r="22" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="408" t="s">
+      <c r="A22" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="409"/>
-      <c r="C22" s="409"/>
-      <c r="D22" s="409"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="409"/>
-      <c r="I22" s="409"/>
-      <c r="J22" s="409"/>
-      <c r="K22" s="409"/>
-      <c r="L22" s="410"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="418"/>
+      <c r="D22" s="418"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="418"/>
+      <c r="G22" s="418"/>
+      <c r="H22" s="418"/>
+      <c r="I22" s="418"/>
+      <c r="J22" s="418"/>
+      <c r="K22" s="418"/>
+      <c r="L22" s="419"/>
       <c r="M22" s="24"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="417" t="s">
+      <c r="O22" s="433" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="418"/>
-      <c r="Q22" s="418"/>
-      <c r="R22" s="419"/>
+      <c r="P22" s="434"/>
+      <c r="Q22" s="434"/>
+      <c r="R22" s="435"/>
       <c r="S22" s="27"/>
-      <c r="T22" s="417" t="s">
+      <c r="T22" s="433" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="418"/>
-      <c r="V22" s="418"/>
-      <c r="W22" s="418"/>
-      <c r="X22" s="418"/>
-      <c r="Y22" s="419"/>
+      <c r="U22" s="434"/>
+      <c r="V22" s="434"/>
+      <c r="W22" s="434"/>
+      <c r="X22" s="434"/>
+      <c r="Y22" s="435"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="24"/>
     </row>
@@ -10751,16 +10751,16 @@
       <c r="C26" s="283"/>
       <c r="D26" s="270"/>
       <c r="E26" s="270"/>
-      <c r="F26" s="411" t="s">
+      <c r="F26" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="413"/>
+      <c r="G26" s="416"/>
       <c r="H26" s="270"/>
-      <c r="I26" s="411" t="s">
+      <c r="I26" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="412"/>
-      <c r="K26" s="413"/>
+      <c r="J26" s="415"/>
+      <c r="K26" s="416"/>
       <c r="L26" s="284"/>
       <c r="N26" s="35"/>
       <c r="O26" s="36" t="s">
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="270"/>
-      <c r="I32" s="411" t="s">
+      <c r="I32" s="414" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="413"/>
+      <c r="J32" s="416"/>
       <c r="K32" s="229">
         <f>K30-K31</f>
         <v>5000</v>
@@ -11254,20 +11254,20 @@
       <c r="Z36" s="57"/>
     </row>
     <row r="37" spans="1:27" s="25" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="408" t="s">
+      <c r="A37" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="409"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="409"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="409"/>
-      <c r="L37" s="410"/>
+      <c r="B37" s="418"/>
+      <c r="C37" s="418"/>
+      <c r="D37" s="418"/>
+      <c r="E37" s="418"/>
+      <c r="F37" s="418"/>
+      <c r="G37" s="418"/>
+      <c r="H37" s="418"/>
+      <c r="I37" s="418"/>
+      <c r="J37" s="418"/>
+      <c r="K37" s="418"/>
+      <c r="L37" s="419"/>
       <c r="M37" s="24"/>
       <c r="N37" s="28"/>
       <c r="O37" s="401" t="s">
@@ -11446,16 +11446,16 @@
       <c r="C41" s="283"/>
       <c r="D41" s="270"/>
       <c r="E41" s="270"/>
-      <c r="F41" s="411" t="s">
+      <c r="F41" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="413"/>
+      <c r="G41" s="416"/>
       <c r="H41" s="270"/>
-      <c r="I41" s="411" t="s">
+      <c r="I41" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="412"/>
-      <c r="K41" s="413"/>
+      <c r="J41" s="415"/>
+      <c r="K41" s="416"/>
       <c r="L41" s="284"/>
       <c r="N41" s="35"/>
       <c r="O41" s="36" t="s">
@@ -11957,20 +11957,20 @@
       <c r="Z51" s="57"/>
     </row>
     <row r="52" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="408" t="s">
+      <c r="A52" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="409"/>
-      <c r="C52" s="409"/>
-      <c r="D52" s="409"/>
-      <c r="E52" s="409"/>
-      <c r="F52" s="409"/>
-      <c r="G52" s="409"/>
-      <c r="H52" s="409"/>
-      <c r="I52" s="409"/>
-      <c r="J52" s="409"/>
-      <c r="K52" s="409"/>
-      <c r="L52" s="410"/>
+      <c r="B52" s="418"/>
+      <c r="C52" s="418"/>
+      <c r="D52" s="418"/>
+      <c r="E52" s="418"/>
+      <c r="F52" s="418"/>
+      <c r="G52" s="418"/>
+      <c r="H52" s="418"/>
+      <c r="I52" s="418"/>
+      <c r="J52" s="418"/>
+      <c r="K52" s="418"/>
+      <c r="L52" s="419"/>
       <c r="M52" s="24"/>
       <c r="N52" s="28"/>
       <c r="O52" s="401" t="s">
@@ -12158,16 +12158,16 @@
       <c r="C56" s="283"/>
       <c r="D56" s="270"/>
       <c r="E56" s="270"/>
-      <c r="F56" s="411" t="s">
+      <c r="F56" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="413"/>
+      <c r="G56" s="416"/>
       <c r="H56" s="270"/>
-      <c r="I56" s="411" t="s">
+      <c r="I56" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J56" s="412"/>
-      <c r="K56" s="413"/>
+      <c r="J56" s="415"/>
+      <c r="K56" s="416"/>
       <c r="L56" s="284"/>
       <c r="N56" s="35"/>
       <c r="O56" s="36" t="s">
@@ -12694,20 +12694,20 @@
       <c r="Z66" s="57"/>
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="408" t="s">
+      <c r="A67" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="409"/>
-      <c r="C67" s="409"/>
-      <c r="D67" s="409"/>
-      <c r="E67" s="409"/>
-      <c r="F67" s="409"/>
-      <c r="G67" s="409"/>
-      <c r="H67" s="409"/>
-      <c r="I67" s="409"/>
-      <c r="J67" s="409"/>
-      <c r="K67" s="409"/>
-      <c r="L67" s="410"/>
+      <c r="B67" s="418"/>
+      <c r="C67" s="418"/>
+      <c r="D67" s="418"/>
+      <c r="E67" s="418"/>
+      <c r="F67" s="418"/>
+      <c r="G67" s="418"/>
+      <c r="H67" s="418"/>
+      <c r="I67" s="418"/>
+      <c r="J67" s="418"/>
+      <c r="K67" s="418"/>
+      <c r="L67" s="419"/>
       <c r="M67" s="24"/>
       <c r="N67" s="28"/>
       <c r="O67" s="401" t="s">
@@ -12896,16 +12896,16 @@
       <c r="C71" s="283"/>
       <c r="D71" s="270"/>
       <c r="E71" s="270"/>
-      <c r="F71" s="411" t="s">
+      <c r="F71" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="413"/>
+      <c r="G71" s="416"/>
       <c r="H71" s="270"/>
-      <c r="I71" s="411" t="s">
+      <c r="I71" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J71" s="412"/>
-      <c r="K71" s="413"/>
+      <c r="J71" s="415"/>
+      <c r="K71" s="416"/>
       <c r="L71" s="284"/>
       <c r="N71" s="35"/>
       <c r="O71" s="36" t="s">
@@ -13427,20 +13427,20 @@
       <c r="Z81" s="57"/>
     </row>
     <row r="82" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="408" t="s">
+      <c r="A82" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="409"/>
-      <c r="C82" s="409"/>
-      <c r="D82" s="409"/>
-      <c r="E82" s="409"/>
-      <c r="F82" s="409"/>
-      <c r="G82" s="409"/>
-      <c r="H82" s="409"/>
-      <c r="I82" s="409"/>
-      <c r="J82" s="409"/>
-      <c r="K82" s="409"/>
-      <c r="L82" s="410"/>
+      <c r="B82" s="418"/>
+      <c r="C82" s="418"/>
+      <c r="D82" s="418"/>
+      <c r="E82" s="418"/>
+      <c r="F82" s="418"/>
+      <c r="G82" s="418"/>
+      <c r="H82" s="418"/>
+      <c r="I82" s="418"/>
+      <c r="J82" s="418"/>
+      <c r="K82" s="418"/>
+      <c r="L82" s="419"/>
       <c r="M82" s="24"/>
       <c r="N82" s="28"/>
       <c r="O82" s="401" t="s">
@@ -13624,16 +13624,16 @@
       <c r="C86" s="283"/>
       <c r="D86" s="270"/>
       <c r="E86" s="270"/>
-      <c r="F86" s="411" t="s">
+      <c r="F86" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G86" s="413"/>
+      <c r="G86" s="416"/>
       <c r="H86" s="270"/>
-      <c r="I86" s="411" t="s">
+      <c r="I86" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J86" s="412"/>
-      <c r="K86" s="413"/>
+      <c r="J86" s="415"/>
+      <c r="K86" s="416"/>
       <c r="L86" s="284"/>
       <c r="N86" s="35"/>
       <c r="O86" s="36" t="s">
@@ -14164,20 +14164,20 @@
       <c r="Z96" s="57"/>
     </row>
     <row r="97" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="408" t="s">
+      <c r="A97" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="409"/>
-      <c r="C97" s="409"/>
-      <c r="D97" s="409"/>
-      <c r="E97" s="409"/>
-      <c r="F97" s="409"/>
-      <c r="G97" s="409"/>
-      <c r="H97" s="409"/>
-      <c r="I97" s="409"/>
-      <c r="J97" s="409"/>
-      <c r="K97" s="409"/>
-      <c r="L97" s="410"/>
+      <c r="B97" s="418"/>
+      <c r="C97" s="418"/>
+      <c r="D97" s="418"/>
+      <c r="E97" s="418"/>
+      <c r="F97" s="418"/>
+      <c r="G97" s="418"/>
+      <c r="H97" s="418"/>
+      <c r="I97" s="418"/>
+      <c r="J97" s="418"/>
+      <c r="K97" s="418"/>
+      <c r="L97" s="419"/>
       <c r="M97" s="24"/>
       <c r="N97" s="28"/>
       <c r="O97" s="401" t="s">
@@ -14363,16 +14363,16 @@
       <c r="C101" s="283"/>
       <c r="D101" s="270"/>
       <c r="E101" s="270"/>
-      <c r="F101" s="411" t="s">
+      <c r="F101" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G101" s="413"/>
+      <c r="G101" s="416"/>
       <c r="H101" s="270"/>
-      <c r="I101" s="411" t="s">
+      <c r="I101" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J101" s="412"/>
-      <c r="K101" s="413"/>
+      <c r="J101" s="415"/>
+      <c r="K101" s="416"/>
       <c r="L101" s="284"/>
       <c r="N101" s="35"/>
       <c r="O101" s="36" t="s">
@@ -14876,20 +14876,20 @@
       <c r="Z111" s="57"/>
     </row>
     <row r="112" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="408" t="s">
+      <c r="A112" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B112" s="409"/>
-      <c r="C112" s="409"/>
-      <c r="D112" s="409"/>
-      <c r="E112" s="409"/>
-      <c r="F112" s="409"/>
-      <c r="G112" s="409"/>
-      <c r="H112" s="409"/>
-      <c r="I112" s="409"/>
-      <c r="J112" s="409"/>
-      <c r="K112" s="409"/>
-      <c r="L112" s="410"/>
+      <c r="B112" s="418"/>
+      <c r="C112" s="418"/>
+      <c r="D112" s="418"/>
+      <c r="E112" s="418"/>
+      <c r="F112" s="418"/>
+      <c r="G112" s="418"/>
+      <c r="H112" s="418"/>
+      <c r="I112" s="418"/>
+      <c r="J112" s="418"/>
+      <c r="K112" s="418"/>
+      <c r="L112" s="419"/>
       <c r="M112" s="24"/>
       <c r="N112" s="28"/>
       <c r="O112" s="401" t="s">
@@ -15085,16 +15085,16 @@
       </c>
       <c r="D116" s="270"/>
       <c r="E116" s="270"/>
-      <c r="F116" s="411" t="s">
+      <c r="F116" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G116" s="413"/>
+      <c r="G116" s="416"/>
       <c r="H116" s="270"/>
-      <c r="I116" s="411" t="s">
+      <c r="I116" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J116" s="412"/>
-      <c r="K116" s="413"/>
+      <c r="J116" s="415"/>
+      <c r="K116" s="416"/>
       <c r="L116" s="284"/>
       <c r="N116" s="35"/>
       <c r="O116" s="36" t="s">
@@ -15614,20 +15614,20 @@
       <c r="Z126" s="57"/>
     </row>
     <row r="127" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="408" t="s">
+      <c r="A127" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="409"/>
-      <c r="C127" s="409"/>
-      <c r="D127" s="409"/>
-      <c r="E127" s="409"/>
-      <c r="F127" s="409"/>
-      <c r="G127" s="409"/>
-      <c r="H127" s="409"/>
-      <c r="I127" s="409"/>
-      <c r="J127" s="409"/>
-      <c r="K127" s="409"/>
-      <c r="L127" s="410"/>
+      <c r="B127" s="418"/>
+      <c r="C127" s="418"/>
+      <c r="D127" s="418"/>
+      <c r="E127" s="418"/>
+      <c r="F127" s="418"/>
+      <c r="G127" s="418"/>
+      <c r="H127" s="418"/>
+      <c r="I127" s="418"/>
+      <c r="J127" s="418"/>
+      <c r="K127" s="418"/>
+      <c r="L127" s="419"/>
       <c r="M127" s="24"/>
       <c r="N127" s="28"/>
       <c r="O127" s="401" t="s">
@@ -15815,16 +15815,16 @@
       <c r="C131" s="283"/>
       <c r="D131" s="270"/>
       <c r="E131" s="270"/>
-      <c r="F131" s="411" t="s">
+      <c r="F131" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G131" s="413"/>
+      <c r="G131" s="416"/>
       <c r="H131" s="270"/>
-      <c r="I131" s="411" t="s">
+      <c r="I131" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J131" s="412"/>
-      <c r="K131" s="413"/>
+      <c r="J131" s="415"/>
+      <c r="K131" s="416"/>
       <c r="L131" s="284"/>
       <c r="N131" s="35"/>
       <c r="O131" s="36" t="s">
@@ -16358,20 +16358,20 @@
       <c r="Z141" s="57"/>
     </row>
     <row r="142" spans="1:28" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="408" t="s">
+      <c r="A142" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B142" s="409"/>
-      <c r="C142" s="409"/>
-      <c r="D142" s="409"/>
-      <c r="E142" s="409"/>
-      <c r="F142" s="409"/>
-      <c r="G142" s="409"/>
-      <c r="H142" s="409"/>
-      <c r="I142" s="409"/>
-      <c r="J142" s="409"/>
-      <c r="K142" s="409"/>
-      <c r="L142" s="410"/>
+      <c r="B142" s="418"/>
+      <c r="C142" s="418"/>
+      <c r="D142" s="418"/>
+      <c r="E142" s="418"/>
+      <c r="F142" s="418"/>
+      <c r="G142" s="418"/>
+      <c r="H142" s="418"/>
+      <c r="I142" s="418"/>
+      <c r="J142" s="418"/>
+      <c r="K142" s="418"/>
+      <c r="L142" s="419"/>
       <c r="M142" s="24"/>
       <c r="N142" s="28"/>
       <c r="O142" s="401" t="s">
@@ -16566,16 +16566,16 @@
       <c r="C146" s="283"/>
       <c r="D146" s="270"/>
       <c r="E146" s="270"/>
-      <c r="F146" s="411" t="s">
+      <c r="F146" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G146" s="413"/>
+      <c r="G146" s="416"/>
       <c r="H146" s="270"/>
-      <c r="I146" s="411" t="s">
+      <c r="I146" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J146" s="412"/>
-      <c r="K146" s="413"/>
+      <c r="J146" s="415"/>
+      <c r="K146" s="416"/>
       <c r="L146" s="284"/>
       <c r="N146" s="35"/>
       <c r="O146" s="36" t="s">
@@ -17091,20 +17091,20 @@
       <c r="Z156" s="57"/>
     </row>
     <row r="157" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="408" t="s">
+      <c r="A157" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B157" s="409"/>
-      <c r="C157" s="409"/>
-      <c r="D157" s="409"/>
-      <c r="E157" s="409"/>
-      <c r="F157" s="409"/>
-      <c r="G157" s="409"/>
-      <c r="H157" s="409"/>
-      <c r="I157" s="409"/>
-      <c r="J157" s="409"/>
-      <c r="K157" s="409"/>
-      <c r="L157" s="410"/>
+      <c r="B157" s="418"/>
+      <c r="C157" s="418"/>
+      <c r="D157" s="418"/>
+      <c r="E157" s="418"/>
+      <c r="F157" s="418"/>
+      <c r="G157" s="418"/>
+      <c r="H157" s="418"/>
+      <c r="I157" s="418"/>
+      <c r="J157" s="418"/>
+      <c r="K157" s="418"/>
+      <c r="L157" s="419"/>
       <c r="M157" s="24"/>
       <c r="N157" s="28"/>
       <c r="O157" s="401" t="s">
@@ -17298,16 +17298,16 @@
       <c r="C161" s="283"/>
       <c r="D161" s="270"/>
       <c r="E161" s="270"/>
-      <c r="F161" s="411" t="s">
+      <c r="F161" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G161" s="413"/>
+      <c r="G161" s="416"/>
       <c r="H161" s="270"/>
-      <c r="I161" s="411" t="s">
+      <c r="I161" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J161" s="412"/>
-      <c r="K161" s="413"/>
+      <c r="J161" s="415"/>
+      <c r="K161" s="416"/>
       <c r="L161" s="284"/>
       <c r="N161" s="35"/>
       <c r="O161" s="36" t="s">
@@ -17823,20 +17823,20 @@
       <c r="Z171" s="57"/>
     </row>
     <row r="172" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="408" t="s">
+      <c r="A172" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B172" s="409"/>
-      <c r="C172" s="409"/>
-      <c r="D172" s="409"/>
-      <c r="E172" s="409"/>
-      <c r="F172" s="409"/>
-      <c r="G172" s="409"/>
-      <c r="H172" s="409"/>
-      <c r="I172" s="409"/>
-      <c r="J172" s="409"/>
-      <c r="K172" s="409"/>
-      <c r="L172" s="410"/>
+      <c r="B172" s="418"/>
+      <c r="C172" s="418"/>
+      <c r="D172" s="418"/>
+      <c r="E172" s="418"/>
+      <c r="F172" s="418"/>
+      <c r="G172" s="418"/>
+      <c r="H172" s="418"/>
+      <c r="I172" s="418"/>
+      <c r="J172" s="418"/>
+      <c r="K172" s="418"/>
+      <c r="L172" s="419"/>
       <c r="M172" s="24"/>
       <c r="N172" s="28"/>
       <c r="O172" s="401" t="s">
@@ -18031,16 +18031,16 @@
       <c r="C176" s="283"/>
       <c r="D176" s="270"/>
       <c r="E176" s="270"/>
-      <c r="F176" s="411" t="s">
+      <c r="F176" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G176" s="413"/>
+      <c r="G176" s="416"/>
       <c r="H176" s="270"/>
-      <c r="I176" s="411" t="s">
+      <c r="I176" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J176" s="412"/>
-      <c r="K176" s="413"/>
+      <c r="J176" s="415"/>
+      <c r="K176" s="416"/>
       <c r="L176" s="284"/>
       <c r="N176" s="35"/>
       <c r="O176" s="36" t="s">
@@ -18556,20 +18556,20 @@
       <c r="Z186" s="57"/>
     </row>
     <row r="187" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="408" t="s">
+      <c r="A187" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B187" s="409"/>
-      <c r="C187" s="409"/>
-      <c r="D187" s="409"/>
-      <c r="E187" s="409"/>
-      <c r="F187" s="409"/>
-      <c r="G187" s="409"/>
-      <c r="H187" s="409"/>
-      <c r="I187" s="409"/>
-      <c r="J187" s="409"/>
-      <c r="K187" s="409"/>
-      <c r="L187" s="410"/>
+      <c r="B187" s="418"/>
+      <c r="C187" s="418"/>
+      <c r="D187" s="418"/>
+      <c r="E187" s="418"/>
+      <c r="F187" s="418"/>
+      <c r="G187" s="418"/>
+      <c r="H187" s="418"/>
+      <c r="I187" s="418"/>
+      <c r="J187" s="418"/>
+      <c r="K187" s="418"/>
+      <c r="L187" s="419"/>
       <c r="M187" s="24"/>
       <c r="N187" s="28"/>
       <c r="O187" s="401" t="s">
@@ -18763,16 +18763,16 @@
       <c r="C191" s="283"/>
       <c r="D191" s="270"/>
       <c r="E191" s="270"/>
-      <c r="F191" s="411" t="s">
+      <c r="F191" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G191" s="413"/>
+      <c r="G191" s="416"/>
       <c r="H191" s="270"/>
-      <c r="I191" s="411" t="s">
+      <c r="I191" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J191" s="412"/>
-      <c r="K191" s="413"/>
+      <c r="J191" s="415"/>
+      <c r="K191" s="416"/>
       <c r="L191" s="284"/>
       <c r="N191" s="35"/>
       <c r="O191" s="36" t="s">
@@ -19303,20 +19303,20 @@
       <c r="Z201" s="57"/>
     </row>
     <row r="202" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="408" t="s">
+      <c r="A202" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B202" s="409"/>
-      <c r="C202" s="409"/>
-      <c r="D202" s="409"/>
-      <c r="E202" s="409"/>
-      <c r="F202" s="409"/>
-      <c r="G202" s="409"/>
-      <c r="H202" s="409"/>
-      <c r="I202" s="409"/>
-      <c r="J202" s="409"/>
-      <c r="K202" s="409"/>
-      <c r="L202" s="410"/>
+      <c r="B202" s="418"/>
+      <c r="C202" s="418"/>
+      <c r="D202" s="418"/>
+      <c r="E202" s="418"/>
+      <c r="F202" s="418"/>
+      <c r="G202" s="418"/>
+      <c r="H202" s="418"/>
+      <c r="I202" s="418"/>
+      <c r="J202" s="418"/>
+      <c r="K202" s="418"/>
+      <c r="L202" s="419"/>
       <c r="M202" s="24"/>
       <c r="N202" s="28"/>
       <c r="O202" s="401" t="s">
@@ -19513,16 +19513,16 @@
       <c r="C206" s="283"/>
       <c r="D206" s="270"/>
       <c r="E206" s="270"/>
-      <c r="F206" s="411" t="s">
+      <c r="F206" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G206" s="413"/>
+      <c r="G206" s="416"/>
       <c r="H206" s="270"/>
-      <c r="I206" s="411" t="s">
+      <c r="I206" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J206" s="412"/>
-      <c r="K206" s="413"/>
+      <c r="J206" s="415"/>
+      <c r="K206" s="416"/>
       <c r="L206" s="284"/>
       <c r="N206" s="35"/>
       <c r="O206" s="36" t="s">
@@ -20038,20 +20038,20 @@
       <c r="Z216" s="57"/>
     </row>
     <row r="217" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="408" t="s">
+      <c r="A217" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B217" s="409"/>
-      <c r="C217" s="409"/>
-      <c r="D217" s="409"/>
-      <c r="E217" s="409"/>
-      <c r="F217" s="409"/>
-      <c r="G217" s="409"/>
-      <c r="H217" s="409"/>
-      <c r="I217" s="409"/>
-      <c r="J217" s="409"/>
-      <c r="K217" s="409"/>
-      <c r="L217" s="410"/>
+      <c r="B217" s="418"/>
+      <c r="C217" s="418"/>
+      <c r="D217" s="418"/>
+      <c r="E217" s="418"/>
+      <c r="F217" s="418"/>
+      <c r="G217" s="418"/>
+      <c r="H217" s="418"/>
+      <c r="I217" s="418"/>
+      <c r="J217" s="418"/>
+      <c r="K217" s="418"/>
+      <c r="L217" s="419"/>
       <c r="M217" s="24"/>
       <c r="N217" s="28"/>
       <c r="O217" s="401" t="s">
@@ -20244,16 +20244,16 @@
       <c r="C221" s="283"/>
       <c r="D221" s="270"/>
       <c r="E221" s="270"/>
-      <c r="F221" s="411" t="s">
+      <c r="F221" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G221" s="413"/>
+      <c r="G221" s="416"/>
       <c r="H221" s="270"/>
-      <c r="I221" s="411" t="s">
+      <c r="I221" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J221" s="412"/>
-      <c r="K221" s="413"/>
+      <c r="J221" s="415"/>
+      <c r="K221" s="416"/>
       <c r="L221" s="284"/>
       <c r="N221" s="35"/>
       <c r="O221" s="36" t="s">
@@ -20771,20 +20771,20 @@
       <c r="Z231" s="57"/>
     </row>
     <row r="232" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="408" t="s">
+      <c r="A232" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B232" s="409"/>
-      <c r="C232" s="409"/>
-      <c r="D232" s="409"/>
-      <c r="E232" s="409"/>
-      <c r="F232" s="409"/>
-      <c r="G232" s="409"/>
-      <c r="H232" s="409"/>
-      <c r="I232" s="409"/>
-      <c r="J232" s="409"/>
-      <c r="K232" s="409"/>
-      <c r="L232" s="410"/>
+      <c r="B232" s="418"/>
+      <c r="C232" s="418"/>
+      <c r="D232" s="418"/>
+      <c r="E232" s="418"/>
+      <c r="F232" s="418"/>
+      <c r="G232" s="418"/>
+      <c r="H232" s="418"/>
+      <c r="I232" s="418"/>
+      <c r="J232" s="418"/>
+      <c r="K232" s="418"/>
+      <c r="L232" s="419"/>
       <c r="M232" s="24"/>
       <c r="N232" s="28"/>
       <c r="O232" s="401" t="s">
@@ -20956,16 +20956,16 @@
       </c>
       <c r="D236" s="270"/>
       <c r="E236" s="270"/>
-      <c r="F236" s="411" t="s">
+      <c r="F236" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G236" s="413"/>
+      <c r="G236" s="416"/>
       <c r="H236" s="270"/>
-      <c r="I236" s="411" t="s">
+      <c r="I236" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J236" s="412"/>
-      <c r="K236" s="413"/>
+      <c r="J236" s="415"/>
+      <c r="K236" s="416"/>
       <c r="L236" s="284"/>
       <c r="N236" s="35"/>
       <c r="O236" s="36" t="s">
@@ -21442,20 +21442,20 @@
       <c r="Z246" s="57"/>
     </row>
     <row r="247" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="408" t="s">
+      <c r="A247" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B247" s="409"/>
-      <c r="C247" s="409"/>
-      <c r="D247" s="409"/>
-      <c r="E247" s="409"/>
-      <c r="F247" s="409"/>
-      <c r="G247" s="409"/>
-      <c r="H247" s="409"/>
-      <c r="I247" s="409"/>
-      <c r="J247" s="409"/>
-      <c r="K247" s="409"/>
-      <c r="L247" s="410"/>
+      <c r="B247" s="418"/>
+      <c r="C247" s="418"/>
+      <c r="D247" s="418"/>
+      <c r="E247" s="418"/>
+      <c r="F247" s="418"/>
+      <c r="G247" s="418"/>
+      <c r="H247" s="418"/>
+      <c r="I247" s="418"/>
+      <c r="J247" s="418"/>
+      <c r="K247" s="418"/>
+      <c r="L247" s="419"/>
       <c r="M247" s="24"/>
       <c r="N247" s="28"/>
       <c r="O247" s="401" t="s">
@@ -21623,16 +21623,16 @@
       <c r="C251" s="283"/>
       <c r="D251" s="270"/>
       <c r="E251" s="270"/>
-      <c r="F251" s="411" t="s">
+      <c r="F251" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G251" s="413"/>
+      <c r="G251" s="416"/>
       <c r="H251" s="270"/>
-      <c r="I251" s="411" t="s">
+      <c r="I251" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J251" s="412"/>
-      <c r="K251" s="413"/>
+      <c r="J251" s="415"/>
+      <c r="K251" s="416"/>
       <c r="L251" s="284"/>
       <c r="N251" s="35"/>
       <c r="O251" s="36" t="s">
@@ -22091,20 +22091,20 @@
       <c r="Z261" s="57"/>
     </row>
     <row r="262" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="408" t="s">
+      <c r="A262" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B262" s="409"/>
-      <c r="C262" s="409"/>
-      <c r="D262" s="409"/>
-      <c r="E262" s="409"/>
-      <c r="F262" s="409"/>
-      <c r="G262" s="409"/>
-      <c r="H262" s="409"/>
-      <c r="I262" s="409"/>
-      <c r="J262" s="409"/>
-      <c r="K262" s="409"/>
-      <c r="L262" s="410"/>
+      <c r="B262" s="418"/>
+      <c r="C262" s="418"/>
+      <c r="D262" s="418"/>
+      <c r="E262" s="418"/>
+      <c r="F262" s="418"/>
+      <c r="G262" s="418"/>
+      <c r="H262" s="418"/>
+      <c r="I262" s="418"/>
+      <c r="J262" s="418"/>
+      <c r="K262" s="418"/>
+      <c r="L262" s="419"/>
       <c r="M262" s="24"/>
       <c r="N262" s="28"/>
       <c r="O262" s="401" t="s">
@@ -22286,16 +22286,16 @@
       <c r="C266" s="283"/>
       <c r="D266" s="270"/>
       <c r="E266" s="270"/>
-      <c r="F266" s="411" t="s">
+      <c r="F266" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G266" s="413"/>
+      <c r="G266" s="416"/>
       <c r="H266" s="270"/>
-      <c r="I266" s="411" t="s">
+      <c r="I266" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J266" s="412"/>
-      <c r="K266" s="413"/>
+      <c r="J266" s="415"/>
+      <c r="K266" s="416"/>
       <c r="L266" s="284"/>
       <c r="N266" s="35"/>
       <c r="O266" s="36" t="s">
@@ -22815,20 +22815,20 @@
       <c r="Z276" s="57"/>
     </row>
     <row r="277" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="408" t="s">
+      <c r="A277" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B277" s="409"/>
-      <c r="C277" s="409"/>
-      <c r="D277" s="409"/>
-      <c r="E277" s="409"/>
-      <c r="F277" s="409"/>
-      <c r="G277" s="409"/>
-      <c r="H277" s="409"/>
-      <c r="I277" s="409"/>
-      <c r="J277" s="409"/>
-      <c r="K277" s="409"/>
-      <c r="L277" s="410"/>
+      <c r="B277" s="418"/>
+      <c r="C277" s="418"/>
+      <c r="D277" s="418"/>
+      <c r="E277" s="418"/>
+      <c r="F277" s="418"/>
+      <c r="G277" s="418"/>
+      <c r="H277" s="418"/>
+      <c r="I277" s="418"/>
+      <c r="J277" s="418"/>
+      <c r="K277" s="418"/>
+      <c r="L277" s="419"/>
       <c r="M277" s="24"/>
       <c r="N277" s="28"/>
       <c r="O277" s="401" t="s">
@@ -23024,16 +23024,16 @@
       <c r="C281" s="283"/>
       <c r="D281" s="270"/>
       <c r="E281" s="270"/>
-      <c r="F281" s="411" t="s">
+      <c r="F281" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G281" s="413"/>
+      <c r="G281" s="416"/>
       <c r="H281" s="270"/>
-      <c r="I281" s="411" t="s">
+      <c r="I281" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J281" s="412"/>
-      <c r="K281" s="413"/>
+      <c r="J281" s="415"/>
+      <c r="K281" s="416"/>
       <c r="L281" s="284"/>
       <c r="N281" s="35"/>
       <c r="O281" s="36" t="s">
@@ -23551,20 +23551,20 @@
       <c r="Z291" s="57"/>
     </row>
     <row r="292" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="408" t="s">
+      <c r="A292" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B292" s="409"/>
-      <c r="C292" s="409"/>
-      <c r="D292" s="409"/>
-      <c r="E292" s="409"/>
-      <c r="F292" s="409"/>
-      <c r="G292" s="409"/>
-      <c r="H292" s="409"/>
-      <c r="I292" s="409"/>
-      <c r="J292" s="409"/>
-      <c r="K292" s="409"/>
-      <c r="L292" s="410"/>
+      <c r="B292" s="418"/>
+      <c r="C292" s="418"/>
+      <c r="D292" s="418"/>
+      <c r="E292" s="418"/>
+      <c r="F292" s="418"/>
+      <c r="G292" s="418"/>
+      <c r="H292" s="418"/>
+      <c r="I292" s="418"/>
+      <c r="J292" s="418"/>
+      <c r="K292" s="418"/>
+      <c r="L292" s="419"/>
       <c r="M292" s="24"/>
       <c r="N292" s="28"/>
       <c r="O292" s="401" t="s">
@@ -23756,16 +23756,16 @@
       <c r="C296" s="283"/>
       <c r="D296" s="270"/>
       <c r="E296" s="270"/>
-      <c r="F296" s="411" t="s">
+      <c r="F296" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G296" s="413"/>
+      <c r="G296" s="416"/>
       <c r="H296" s="270"/>
-      <c r="I296" s="411" t="s">
+      <c r="I296" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J296" s="412"/>
-      <c r="K296" s="413"/>
+      <c r="J296" s="415"/>
+      <c r="K296" s="416"/>
       <c r="L296" s="284"/>
       <c r="N296" s="35"/>
       <c r="O296" s="36" t="s">
@@ -24292,20 +24292,20 @@
       <c r="Z306" s="57"/>
     </row>
     <row r="307" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="408" t="s">
+      <c r="A307" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B307" s="409"/>
-      <c r="C307" s="409"/>
-      <c r="D307" s="409"/>
-      <c r="E307" s="409"/>
-      <c r="F307" s="409"/>
-      <c r="G307" s="409"/>
-      <c r="H307" s="409"/>
-      <c r="I307" s="409"/>
-      <c r="J307" s="409"/>
-      <c r="K307" s="409"/>
-      <c r="L307" s="410"/>
+      <c r="B307" s="418"/>
+      <c r="C307" s="418"/>
+      <c r="D307" s="418"/>
+      <c r="E307" s="418"/>
+      <c r="F307" s="418"/>
+      <c r="G307" s="418"/>
+      <c r="H307" s="418"/>
+      <c r="I307" s="418"/>
+      <c r="J307" s="418"/>
+      <c r="K307" s="418"/>
+      <c r="L307" s="419"/>
       <c r="M307" s="24"/>
       <c r="N307" s="28"/>
       <c r="O307" s="401" t="s">
@@ -24501,16 +24501,16 @@
       <c r="C311" s="283"/>
       <c r="D311" s="270"/>
       <c r="E311" s="270"/>
-      <c r="F311" s="411" t="s">
+      <c r="F311" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G311" s="413"/>
+      <c r="G311" s="416"/>
       <c r="H311" s="270"/>
-      <c r="I311" s="411" t="s">
+      <c r="I311" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J311" s="412"/>
-      <c r="K311" s="413"/>
+      <c r="J311" s="415"/>
+      <c r="K311" s="416"/>
       <c r="L311" s="284"/>
       <c r="N311" s="35"/>
       <c r="O311" s="36" t="s">
@@ -25028,20 +25028,20 @@
       <c r="Z321" s="57"/>
     </row>
     <row r="322" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="408" t="s">
+      <c r="A322" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B322" s="409"/>
-      <c r="C322" s="409"/>
-      <c r="D322" s="409"/>
-      <c r="E322" s="409"/>
-      <c r="F322" s="409"/>
-      <c r="G322" s="409"/>
-      <c r="H322" s="409"/>
-      <c r="I322" s="409"/>
-      <c r="J322" s="409"/>
-      <c r="K322" s="409"/>
-      <c r="L322" s="410"/>
+      <c r="B322" s="418"/>
+      <c r="C322" s="418"/>
+      <c r="D322" s="418"/>
+      <c r="E322" s="418"/>
+      <c r="F322" s="418"/>
+      <c r="G322" s="418"/>
+      <c r="H322" s="418"/>
+      <c r="I322" s="418"/>
+      <c r="J322" s="418"/>
+      <c r="K322" s="418"/>
+      <c r="L322" s="419"/>
       <c r="M322" s="24"/>
       <c r="N322" s="28"/>
       <c r="O322" s="401" t="s">
@@ -25235,16 +25235,16 @@
       <c r="C326" s="283"/>
       <c r="D326" s="270"/>
       <c r="E326" s="270"/>
-      <c r="F326" s="411" t="s">
+      <c r="F326" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G326" s="413"/>
+      <c r="G326" s="416"/>
       <c r="H326" s="270"/>
-      <c r="I326" s="411" t="s">
+      <c r="I326" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J326" s="412"/>
-      <c r="K326" s="413"/>
+      <c r="J326" s="415"/>
+      <c r="K326" s="416"/>
       <c r="L326" s="284"/>
       <c r="N326" s="35"/>
       <c r="O326" s="36" t="s">
@@ -25754,20 +25754,20 @@
       <c r="Z336" s="57"/>
     </row>
     <row r="337" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="408" t="s">
+      <c r="A337" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B337" s="409"/>
-      <c r="C337" s="409"/>
-      <c r="D337" s="409"/>
-      <c r="E337" s="409"/>
-      <c r="F337" s="409"/>
-      <c r="G337" s="409"/>
-      <c r="H337" s="409"/>
-      <c r="I337" s="409"/>
-      <c r="J337" s="409"/>
-      <c r="K337" s="409"/>
-      <c r="L337" s="410"/>
+      <c r="B337" s="418"/>
+      <c r="C337" s="418"/>
+      <c r="D337" s="418"/>
+      <c r="E337" s="418"/>
+      <c r="F337" s="418"/>
+      <c r="G337" s="418"/>
+      <c r="H337" s="418"/>
+      <c r="I337" s="418"/>
+      <c r="J337" s="418"/>
+      <c r="K337" s="418"/>
+      <c r="L337" s="419"/>
       <c r="M337" s="24"/>
       <c r="N337" s="28"/>
       <c r="O337" s="401" t="s">
@@ -25961,16 +25961,16 @@
       <c r="C341" s="283"/>
       <c r="D341" s="270"/>
       <c r="E341" s="270"/>
-      <c r="F341" s="411" t="s">
+      <c r="F341" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G341" s="413"/>
+      <c r="G341" s="416"/>
       <c r="H341" s="270"/>
-      <c r="I341" s="411" t="s">
+      <c r="I341" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J341" s="412"/>
-      <c r="K341" s="413"/>
+      <c r="J341" s="415"/>
+      <c r="K341" s="416"/>
       <c r="L341" s="284"/>
       <c r="N341" s="35"/>
       <c r="O341" s="36" t="s">
@@ -26502,20 +26502,20 @@
       <c r="Z351" s="57"/>
     </row>
     <row r="352" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="408" t="s">
+      <c r="A352" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B352" s="409"/>
-      <c r="C352" s="409"/>
-      <c r="D352" s="409"/>
-      <c r="E352" s="409"/>
-      <c r="F352" s="409"/>
-      <c r="G352" s="409"/>
-      <c r="H352" s="409"/>
-      <c r="I352" s="409"/>
-      <c r="J352" s="409"/>
-      <c r="K352" s="409"/>
-      <c r="L352" s="410"/>
+      <c r="B352" s="418"/>
+      <c r="C352" s="418"/>
+      <c r="D352" s="418"/>
+      <c r="E352" s="418"/>
+      <c r="F352" s="418"/>
+      <c r="G352" s="418"/>
+      <c r="H352" s="418"/>
+      <c r="I352" s="418"/>
+      <c r="J352" s="418"/>
+      <c r="K352" s="418"/>
+      <c r="L352" s="419"/>
       <c r="M352" s="24"/>
       <c r="N352" s="28"/>
       <c r="O352" s="401" t="s">
@@ -26700,16 +26700,16 @@
       <c r="C356" s="283"/>
       <c r="D356" s="270"/>
       <c r="E356" s="270"/>
-      <c r="F356" s="411" t="s">
+      <c r="F356" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G356" s="413"/>
+      <c r="G356" s="416"/>
       <c r="H356" s="270"/>
-      <c r="I356" s="411" t="s">
+      <c r="I356" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J356" s="412"/>
-      <c r="K356" s="413"/>
+      <c r="J356" s="415"/>
+      <c r="K356" s="416"/>
       <c r="L356" s="284"/>
       <c r="N356" s="35"/>
       <c r="O356" s="36" t="s">
@@ -27236,20 +27236,20 @@
       <c r="Z366" s="57"/>
     </row>
     <row r="367" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="408" t="s">
+      <c r="A367" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B367" s="409"/>
-      <c r="C367" s="409"/>
-      <c r="D367" s="409"/>
-      <c r="E367" s="409"/>
-      <c r="F367" s="409"/>
-      <c r="G367" s="409"/>
-      <c r="H367" s="409"/>
-      <c r="I367" s="409"/>
-      <c r="J367" s="409"/>
-      <c r="K367" s="409"/>
-      <c r="L367" s="410"/>
+      <c r="B367" s="418"/>
+      <c r="C367" s="418"/>
+      <c r="D367" s="418"/>
+      <c r="E367" s="418"/>
+      <c r="F367" s="418"/>
+      <c r="G367" s="418"/>
+      <c r="H367" s="418"/>
+      <c r="I367" s="418"/>
+      <c r="J367" s="418"/>
+      <c r="K367" s="418"/>
+      <c r="L367" s="419"/>
       <c r="M367" s="24"/>
       <c r="N367" s="28"/>
       <c r="O367" s="401" t="s">
@@ -27423,16 +27423,16 @@
       <c r="C371" s="283"/>
       <c r="D371" s="270"/>
       <c r="E371" s="270"/>
-      <c r="F371" s="411" t="s">
+      <c r="F371" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G371" s="413"/>
+      <c r="G371" s="416"/>
       <c r="H371" s="270"/>
-      <c r="I371" s="411" t="s">
+      <c r="I371" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J371" s="412"/>
-      <c r="K371" s="413"/>
+      <c r="J371" s="415"/>
+      <c r="K371" s="416"/>
       <c r="L371" s="284"/>
       <c r="N371" s="35"/>
       <c r="O371" s="36" t="s">
@@ -27937,20 +27937,20 @@
       <c r="Z381" s="57"/>
     </row>
     <row r="382" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="408" t="s">
+      <c r="A382" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B382" s="409"/>
-      <c r="C382" s="409"/>
-      <c r="D382" s="409"/>
-      <c r="E382" s="409"/>
-      <c r="F382" s="409"/>
-      <c r="G382" s="409"/>
-      <c r="H382" s="409"/>
-      <c r="I382" s="409"/>
-      <c r="J382" s="409"/>
-      <c r="K382" s="409"/>
-      <c r="L382" s="410"/>
+      <c r="B382" s="418"/>
+      <c r="C382" s="418"/>
+      <c r="D382" s="418"/>
+      <c r="E382" s="418"/>
+      <c r="F382" s="418"/>
+      <c r="G382" s="418"/>
+      <c r="H382" s="418"/>
+      <c r="I382" s="418"/>
+      <c r="J382" s="418"/>
+      <c r="K382" s="418"/>
+      <c r="L382" s="419"/>
       <c r="M382" s="24"/>
       <c r="N382" s="28"/>
       <c r="O382" s="401" t="s">
@@ -28144,16 +28144,16 @@
       <c r="C386" s="283"/>
       <c r="D386" s="270"/>
       <c r="E386" s="270"/>
-      <c r="F386" s="411" t="s">
+      <c r="F386" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G386" s="413"/>
+      <c r="G386" s="416"/>
       <c r="H386" s="270"/>
-      <c r="I386" s="411" t="s">
+      <c r="I386" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J386" s="412"/>
-      <c r="K386" s="413"/>
+      <c r="J386" s="415"/>
+      <c r="K386" s="416"/>
       <c r="L386" s="284"/>
       <c r="N386" s="35"/>
       <c r="O386" s="36" t="s">
@@ -28669,20 +28669,20 @@
       <c r="Z396" s="57"/>
     </row>
     <row r="397" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="428" t="s">
+      <c r="A397" s="425" t="s">
         <v>38</v>
       </c>
-      <c r="B397" s="429"/>
-      <c r="C397" s="429"/>
-      <c r="D397" s="429"/>
-      <c r="E397" s="429"/>
-      <c r="F397" s="429"/>
-      <c r="G397" s="429"/>
-      <c r="H397" s="429"/>
-      <c r="I397" s="429"/>
-      <c r="J397" s="429"/>
-      <c r="K397" s="429"/>
-      <c r="L397" s="430"/>
+      <c r="B397" s="426"/>
+      <c r="C397" s="426"/>
+      <c r="D397" s="426"/>
+      <c r="E397" s="426"/>
+      <c r="F397" s="426"/>
+      <c r="G397" s="426"/>
+      <c r="H397" s="426"/>
+      <c r="I397" s="426"/>
+      <c r="J397" s="426"/>
+      <c r="K397" s="426"/>
+      <c r="L397" s="427"/>
       <c r="M397" s="24"/>
       <c r="N397" s="28"/>
       <c r="O397" s="401" t="s">
@@ -29404,20 +29404,20 @@
     </row>
     <row r="412" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="413" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="408" t="s">
+      <c r="A413" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B413" s="409"/>
-      <c r="C413" s="409"/>
-      <c r="D413" s="409"/>
-      <c r="E413" s="409"/>
-      <c r="F413" s="409"/>
-      <c r="G413" s="409"/>
-      <c r="H413" s="409"/>
-      <c r="I413" s="409"/>
-      <c r="J413" s="409"/>
-      <c r="K413" s="409"/>
-      <c r="L413" s="410"/>
+      <c r="B413" s="418"/>
+      <c r="C413" s="418"/>
+      <c r="D413" s="418"/>
+      <c r="E413" s="418"/>
+      <c r="F413" s="418"/>
+      <c r="G413" s="418"/>
+      <c r="H413" s="418"/>
+      <c r="I413" s="418"/>
+      <c r="J413" s="418"/>
+      <c r="K413" s="418"/>
+      <c r="L413" s="419"/>
       <c r="M413" s="24"/>
       <c r="N413" s="28"/>
       <c r="O413" s="401" t="s">
@@ -29615,16 +29615,16 @@
       <c r="C417" s="283"/>
       <c r="D417" s="270"/>
       <c r="E417" s="270"/>
-      <c r="F417" s="411" t="s">
+      <c r="F417" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G417" s="413"/>
+      <c r="G417" s="416"/>
       <c r="H417" s="270"/>
-      <c r="I417" s="411" t="s">
+      <c r="I417" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J417" s="412"/>
-      <c r="K417" s="413"/>
+      <c r="J417" s="415"/>
+      <c r="K417" s="416"/>
       <c r="L417" s="284"/>
       <c r="N417" s="35"/>
       <c r="O417" s="36" t="s">
@@ -30162,20 +30162,20 @@
       <c r="Z427" s="57"/>
     </row>
     <row r="428" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="408" t="s">
+      <c r="A428" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B428" s="409"/>
-      <c r="C428" s="409"/>
-      <c r="D428" s="409"/>
-      <c r="E428" s="409"/>
-      <c r="F428" s="409"/>
-      <c r="G428" s="409"/>
-      <c r="H428" s="409"/>
-      <c r="I428" s="409"/>
-      <c r="J428" s="409"/>
-      <c r="K428" s="409"/>
-      <c r="L428" s="410"/>
+      <c r="B428" s="418"/>
+      <c r="C428" s="418"/>
+      <c r="D428" s="418"/>
+      <c r="E428" s="418"/>
+      <c r="F428" s="418"/>
+      <c r="G428" s="418"/>
+      <c r="H428" s="418"/>
+      <c r="I428" s="418"/>
+      <c r="J428" s="418"/>
+      <c r="K428" s="418"/>
+      <c r="L428" s="419"/>
       <c r="M428" s="24"/>
       <c r="N428" s="28"/>
       <c r="O428" s="401" t="s">
@@ -30367,16 +30367,16 @@
       <c r="C432" s="283"/>
       <c r="D432" s="270"/>
       <c r="E432" s="270"/>
-      <c r="F432" s="411" t="s">
+      <c r="F432" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G432" s="413"/>
+      <c r="G432" s="416"/>
       <c r="H432" s="270"/>
-      <c r="I432" s="411" t="s">
+      <c r="I432" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J432" s="412"/>
-      <c r="K432" s="413"/>
+      <c r="J432" s="415"/>
+      <c r="K432" s="416"/>
       <c r="L432" s="284"/>
       <c r="N432" s="35"/>
       <c r="O432" s="36" t="s">
@@ -30912,20 +30912,20 @@
       <c r="Z442" s="57"/>
     </row>
     <row r="443" spans="1:29" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="408" t="s">
+      <c r="A443" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B443" s="409"/>
-      <c r="C443" s="409"/>
-      <c r="D443" s="409"/>
-      <c r="E443" s="409"/>
-      <c r="F443" s="409"/>
-      <c r="G443" s="409"/>
-      <c r="H443" s="409"/>
-      <c r="I443" s="409"/>
-      <c r="J443" s="409"/>
-      <c r="K443" s="409"/>
-      <c r="L443" s="410"/>
+      <c r="B443" s="418"/>
+      <c r="C443" s="418"/>
+      <c r="D443" s="418"/>
+      <c r="E443" s="418"/>
+      <c r="F443" s="418"/>
+      <c r="G443" s="418"/>
+      <c r="H443" s="418"/>
+      <c r="I443" s="418"/>
+      <c r="J443" s="418"/>
+      <c r="K443" s="418"/>
+      <c r="L443" s="419"/>
       <c r="M443" s="24"/>
       <c r="N443" s="28"/>
       <c r="O443" s="401" t="s">
@@ -31112,16 +31112,16 @@
       <c r="C447" s="283"/>
       <c r="D447" s="270"/>
       <c r="E447" s="270"/>
-      <c r="F447" s="411" t="s">
+      <c r="F447" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G447" s="413"/>
+      <c r="G447" s="416"/>
       <c r="H447" s="270"/>
-      <c r="I447" s="411" t="s">
+      <c r="I447" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J447" s="412"/>
-      <c r="K447" s="413"/>
+      <c r="J447" s="415"/>
+      <c r="K447" s="416"/>
       <c r="L447" s="284"/>
       <c r="N447" s="35"/>
       <c r="O447" s="36" t="s">
@@ -31643,20 +31643,20 @@
       <c r="Z457" s="57"/>
     </row>
     <row r="458" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="408" t="s">
+      <c r="A458" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B458" s="409"/>
-      <c r="C458" s="409"/>
-      <c r="D458" s="409"/>
-      <c r="E458" s="409"/>
-      <c r="F458" s="409"/>
-      <c r="G458" s="409"/>
-      <c r="H458" s="409"/>
-      <c r="I458" s="409"/>
-      <c r="J458" s="409"/>
-      <c r="K458" s="409"/>
-      <c r="L458" s="410"/>
+      <c r="B458" s="418"/>
+      <c r="C458" s="418"/>
+      <c r="D458" s="418"/>
+      <c r="E458" s="418"/>
+      <c r="F458" s="418"/>
+      <c r="G458" s="418"/>
+      <c r="H458" s="418"/>
+      <c r="I458" s="418"/>
+      <c r="J458" s="418"/>
+      <c r="K458" s="418"/>
+      <c r="L458" s="419"/>
       <c r="M458" s="24"/>
       <c r="N458" s="28"/>
       <c r="O458" s="401" t="s">
@@ -31837,16 +31837,16 @@
       <c r="C462" s="283"/>
       <c r="D462" s="270"/>
       <c r="E462" s="270"/>
-      <c r="F462" s="411" t="s">
+      <c r="F462" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G462" s="413"/>
+      <c r="G462" s="416"/>
       <c r="H462" s="270"/>
-      <c r="I462" s="411" t="s">
+      <c r="I462" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J462" s="412"/>
-      <c r="K462" s="413"/>
+      <c r="J462" s="415"/>
+      <c r="K462" s="416"/>
       <c r="L462" s="284"/>
       <c r="N462" s="35"/>
       <c r="O462" s="36" t="s">
@@ -32366,20 +32366,20 @@
       <c r="Z472" s="57"/>
     </row>
     <row r="473" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="408" t="s">
+      <c r="A473" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B473" s="409"/>
-      <c r="C473" s="409"/>
-      <c r="D473" s="409"/>
-      <c r="E473" s="409"/>
-      <c r="F473" s="409"/>
-      <c r="G473" s="409"/>
-      <c r="H473" s="409"/>
-      <c r="I473" s="409"/>
-      <c r="J473" s="409"/>
-      <c r="K473" s="409"/>
-      <c r="L473" s="410"/>
+      <c r="B473" s="418"/>
+      <c r="C473" s="418"/>
+      <c r="D473" s="418"/>
+      <c r="E473" s="418"/>
+      <c r="F473" s="418"/>
+      <c r="G473" s="418"/>
+      <c r="H473" s="418"/>
+      <c r="I473" s="418"/>
+      <c r="J473" s="418"/>
+      <c r="K473" s="418"/>
+      <c r="L473" s="419"/>
       <c r="M473" s="24"/>
       <c r="N473" s="28"/>
       <c r="O473" s="401" t="s">
@@ -32564,16 +32564,16 @@
       <c r="C477" s="283"/>
       <c r="D477" s="270"/>
       <c r="E477" s="270"/>
-      <c r="F477" s="411" t="s">
+      <c r="F477" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G477" s="413"/>
+      <c r="G477" s="416"/>
       <c r="H477" s="270"/>
-      <c r="I477" s="411" t="s">
+      <c r="I477" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J477" s="412"/>
-      <c r="K477" s="413"/>
+      <c r="J477" s="415"/>
+      <c r="K477" s="416"/>
       <c r="L477" s="284"/>
       <c r="N477" s="35"/>
       <c r="O477" s="36" t="s">
@@ -33093,20 +33093,20 @@
       <c r="Z487" s="57"/>
     </row>
     <row r="488" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="408" t="s">
+      <c r="A488" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B488" s="409"/>
-      <c r="C488" s="409"/>
-      <c r="D488" s="409"/>
-      <c r="E488" s="409"/>
-      <c r="F488" s="409"/>
-      <c r="G488" s="409"/>
-      <c r="H488" s="409"/>
-      <c r="I488" s="409"/>
-      <c r="J488" s="409"/>
-      <c r="K488" s="409"/>
-      <c r="L488" s="410"/>
+      <c r="B488" s="418"/>
+      <c r="C488" s="418"/>
+      <c r="D488" s="418"/>
+      <c r="E488" s="418"/>
+      <c r="F488" s="418"/>
+      <c r="G488" s="418"/>
+      <c r="H488" s="418"/>
+      <c r="I488" s="418"/>
+      <c r="J488" s="418"/>
+      <c r="K488" s="418"/>
+      <c r="L488" s="419"/>
       <c r="M488" s="24"/>
       <c r="N488" s="28"/>
       <c r="O488" s="401" t="s">
@@ -33289,16 +33289,16 @@
       <c r="C492" s="283"/>
       <c r="D492" s="270"/>
       <c r="E492" s="270"/>
-      <c r="F492" s="411" t="s">
+      <c r="F492" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G492" s="413"/>
+      <c r="G492" s="416"/>
       <c r="H492" s="270"/>
-      <c r="I492" s="411" t="s">
+      <c r="I492" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J492" s="412"/>
-      <c r="K492" s="413"/>
+      <c r="J492" s="415"/>
+      <c r="K492" s="416"/>
       <c r="L492" s="284"/>
       <c r="N492" s="35"/>
       <c r="O492" s="36" t="s">
@@ -33813,20 +33813,20 @@
       <c r="Z502" s="57"/>
     </row>
     <row r="503" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="408" t="s">
+      <c r="A503" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B503" s="409"/>
-      <c r="C503" s="409"/>
-      <c r="D503" s="409"/>
-      <c r="E503" s="409"/>
-      <c r="F503" s="409"/>
-      <c r="G503" s="409"/>
-      <c r="H503" s="409"/>
-      <c r="I503" s="409"/>
-      <c r="J503" s="409"/>
-      <c r="K503" s="409"/>
-      <c r="L503" s="410"/>
+      <c r="B503" s="418"/>
+      <c r="C503" s="418"/>
+      <c r="D503" s="418"/>
+      <c r="E503" s="418"/>
+      <c r="F503" s="418"/>
+      <c r="G503" s="418"/>
+      <c r="H503" s="418"/>
+      <c r="I503" s="418"/>
+      <c r="J503" s="418"/>
+      <c r="K503" s="418"/>
+      <c r="L503" s="419"/>
       <c r="M503" s="24"/>
       <c r="N503" s="28"/>
       <c r="O503" s="401" t="s">
@@ -34016,16 +34016,16 @@
       <c r="C507" s="283"/>
       <c r="D507" s="270"/>
       <c r="E507" s="270"/>
-      <c r="F507" s="411" t="s">
+      <c r="F507" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G507" s="413"/>
+      <c r="G507" s="416"/>
       <c r="H507" s="270"/>
-      <c r="I507" s="411" t="s">
+      <c r="I507" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J507" s="412"/>
-      <c r="K507" s="413"/>
+      <c r="J507" s="415"/>
+      <c r="K507" s="416"/>
       <c r="L507" s="284"/>
       <c r="N507" s="35"/>
       <c r="O507" s="36" t="s">
@@ -34531,20 +34531,20 @@
       <c r="Z517" s="57"/>
     </row>
     <row r="518" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="408" t="s">
+      <c r="A518" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B518" s="409"/>
-      <c r="C518" s="409"/>
-      <c r="D518" s="409"/>
-      <c r="E518" s="409"/>
-      <c r="F518" s="409"/>
-      <c r="G518" s="409"/>
-      <c r="H518" s="409"/>
-      <c r="I518" s="409"/>
-      <c r="J518" s="409"/>
-      <c r="K518" s="409"/>
-      <c r="L518" s="410"/>
+      <c r="B518" s="418"/>
+      <c r="C518" s="418"/>
+      <c r="D518" s="418"/>
+      <c r="E518" s="418"/>
+      <c r="F518" s="418"/>
+      <c r="G518" s="418"/>
+      <c r="H518" s="418"/>
+      <c r="I518" s="418"/>
+      <c r="J518" s="418"/>
+      <c r="K518" s="418"/>
+      <c r="L518" s="419"/>
       <c r="M518" s="24"/>
       <c r="N518" s="28"/>
       <c r="O518" s="401" t="s">
@@ -34730,16 +34730,16 @@
       <c r="C522" s="283"/>
       <c r="D522" s="270"/>
       <c r="E522" s="270"/>
-      <c r="F522" s="411" t="s">
+      <c r="F522" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G522" s="413"/>
+      <c r="G522" s="416"/>
       <c r="H522" s="270"/>
-      <c r="I522" s="411" t="s">
+      <c r="I522" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J522" s="412"/>
-      <c r="K522" s="413"/>
+      <c r="J522" s="415"/>
+      <c r="K522" s="416"/>
       <c r="L522" s="284"/>
       <c r="N522" s="35"/>
       <c r="O522" s="36" t="s">
@@ -35260,20 +35260,20 @@
       <c r="Z532" s="57"/>
     </row>
     <row r="533" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="408" t="s">
+      <c r="A533" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B533" s="409"/>
-      <c r="C533" s="409"/>
-      <c r="D533" s="409"/>
-      <c r="E533" s="409"/>
-      <c r="F533" s="409"/>
-      <c r="G533" s="409"/>
-      <c r="H533" s="409"/>
-      <c r="I533" s="409"/>
-      <c r="J533" s="409"/>
-      <c r="K533" s="409"/>
-      <c r="L533" s="410"/>
+      <c r="B533" s="418"/>
+      <c r="C533" s="418"/>
+      <c r="D533" s="418"/>
+      <c r="E533" s="418"/>
+      <c r="F533" s="418"/>
+      <c r="G533" s="418"/>
+      <c r="H533" s="418"/>
+      <c r="I533" s="418"/>
+      <c r="J533" s="418"/>
+      <c r="K533" s="418"/>
+      <c r="L533" s="419"/>
       <c r="M533" s="24"/>
       <c r="N533" s="28"/>
       <c r="O533" s="401" t="s">
@@ -35452,16 +35452,16 @@
       <c r="C537" s="283"/>
       <c r="D537" s="270"/>
       <c r="E537" s="270"/>
-      <c r="F537" s="411" t="s">
+      <c r="F537" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G537" s="413"/>
+      <c r="G537" s="416"/>
       <c r="H537" s="270"/>
-      <c r="I537" s="411" t="s">
+      <c r="I537" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J537" s="412"/>
-      <c r="K537" s="413"/>
+      <c r="J537" s="415"/>
+      <c r="K537" s="416"/>
       <c r="L537" s="284"/>
       <c r="N537" s="35"/>
       <c r="O537" s="36" t="s">
@@ -35982,20 +35982,20 @@
       <c r="Z547" s="57"/>
     </row>
     <row r="548" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="408" t="s">
+      <c r="A548" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B548" s="409"/>
-      <c r="C548" s="409"/>
-      <c r="D548" s="409"/>
-      <c r="E548" s="409"/>
-      <c r="F548" s="409"/>
-      <c r="G548" s="409"/>
-      <c r="H548" s="409"/>
-      <c r="I548" s="409"/>
-      <c r="J548" s="409"/>
-      <c r="K548" s="409"/>
-      <c r="L548" s="410"/>
+      <c r="B548" s="418"/>
+      <c r="C548" s="418"/>
+      <c r="D548" s="418"/>
+      <c r="E548" s="418"/>
+      <c r="F548" s="418"/>
+      <c r="G548" s="418"/>
+      <c r="H548" s="418"/>
+      <c r="I548" s="418"/>
+      <c r="J548" s="418"/>
+      <c r="K548" s="418"/>
+      <c r="L548" s="419"/>
       <c r="M548" s="24"/>
       <c r="N548" s="28"/>
       <c r="O548" s="401" t="s">
@@ -36185,16 +36185,16 @@
       <c r="C552" s="283"/>
       <c r="D552" s="270"/>
       <c r="E552" s="270"/>
-      <c r="F552" s="411" t="s">
+      <c r="F552" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G552" s="413"/>
+      <c r="G552" s="416"/>
       <c r="H552" s="270"/>
-      <c r="I552" s="411" t="s">
+      <c r="I552" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J552" s="412"/>
-      <c r="K552" s="413"/>
+      <c r="J552" s="415"/>
+      <c r="K552" s="416"/>
       <c r="L552" s="284"/>
       <c r="N552" s="35"/>
       <c r="O552" s="36" t="s">
@@ -36719,20 +36719,20 @@
       <c r="Z562" s="57"/>
     </row>
     <row r="563" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="408" t="s">
+      <c r="A563" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B563" s="409"/>
-      <c r="C563" s="409"/>
-      <c r="D563" s="409"/>
-      <c r="E563" s="409"/>
-      <c r="F563" s="409"/>
-      <c r="G563" s="409"/>
-      <c r="H563" s="409"/>
-      <c r="I563" s="409"/>
-      <c r="J563" s="409"/>
-      <c r="K563" s="409"/>
-      <c r="L563" s="410"/>
+      <c r="B563" s="418"/>
+      <c r="C563" s="418"/>
+      <c r="D563" s="418"/>
+      <c r="E563" s="418"/>
+      <c r="F563" s="418"/>
+      <c r="G563" s="418"/>
+      <c r="H563" s="418"/>
+      <c r="I563" s="418"/>
+      <c r="J563" s="418"/>
+      <c r="K563" s="418"/>
+      <c r="L563" s="419"/>
       <c r="M563" s="24"/>
       <c r="N563" s="28"/>
       <c r="O563" s="401" t="s">
@@ -36915,16 +36915,16 @@
       </c>
       <c r="D567" s="270"/>
       <c r="E567" s="270"/>
-      <c r="F567" s="411" t="s">
+      <c r="F567" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G567" s="413"/>
+      <c r="G567" s="416"/>
       <c r="H567" s="270"/>
-      <c r="I567" s="411" t="s">
+      <c r="I567" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J567" s="412"/>
-      <c r="K567" s="413"/>
+      <c r="J567" s="415"/>
+      <c r="K567" s="416"/>
       <c r="L567" s="284"/>
       <c r="N567" s="35"/>
       <c r="O567" s="36" t="s">
@@ -37430,20 +37430,20 @@
       <c r="Z577" s="57"/>
     </row>
     <row r="578" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="408" t="s">
+      <c r="A578" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B578" s="409"/>
-      <c r="C578" s="409"/>
-      <c r="D578" s="409"/>
-      <c r="E578" s="409"/>
-      <c r="F578" s="409"/>
-      <c r="G578" s="409"/>
-      <c r="H578" s="409"/>
-      <c r="I578" s="409"/>
-      <c r="J578" s="409"/>
-      <c r="K578" s="409"/>
-      <c r="L578" s="410"/>
+      <c r="B578" s="418"/>
+      <c r="C578" s="418"/>
+      <c r="D578" s="418"/>
+      <c r="E578" s="418"/>
+      <c r="F578" s="418"/>
+      <c r="G578" s="418"/>
+      <c r="H578" s="418"/>
+      <c r="I578" s="418"/>
+      <c r="J578" s="418"/>
+      <c r="K578" s="418"/>
+      <c r="L578" s="419"/>
       <c r="M578" s="24"/>
       <c r="N578" s="28"/>
       <c r="O578" s="401" t="s">
@@ -37635,16 +37635,16 @@
       <c r="C582" s="283"/>
       <c r="D582" s="270"/>
       <c r="E582" s="270"/>
-      <c r="F582" s="411" t="s">
+      <c r="F582" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G582" s="413"/>
+      <c r="G582" s="416"/>
       <c r="H582" s="270"/>
-      <c r="I582" s="411" t="s">
+      <c r="I582" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J582" s="412"/>
-      <c r="K582" s="413"/>
+      <c r="J582" s="415"/>
+      <c r="K582" s="416"/>
       <c r="L582" s="284"/>
       <c r="N582" s="35"/>
       <c r="O582" s="36" t="s">
@@ -38061,8 +38061,8 @@
       <c r="F590" s="268"/>
       <c r="G590" s="268"/>
       <c r="H590" s="268"/>
-      <c r="I590" s="431"/>
-      <c r="J590" s="431"/>
+      <c r="I590" s="424"/>
+      <c r="J590" s="424"/>
       <c r="K590" s="352"/>
       <c r="L590" s="284"/>
       <c r="N590" s="35"/>
@@ -38160,20 +38160,20 @@
       <c r="Z592" s="57"/>
     </row>
     <row r="593" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="414" t="s">
+      <c r="A593" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="B593" s="415"/>
-      <c r="C593" s="415"/>
-      <c r="D593" s="415"/>
-      <c r="E593" s="415"/>
-      <c r="F593" s="415"/>
-      <c r="G593" s="415"/>
-      <c r="H593" s="415"/>
-      <c r="I593" s="415"/>
-      <c r="J593" s="415"/>
-      <c r="K593" s="415"/>
-      <c r="L593" s="416"/>
+      <c r="B593" s="421"/>
+      <c r="C593" s="421"/>
+      <c r="D593" s="421"/>
+      <c r="E593" s="421"/>
+      <c r="F593" s="421"/>
+      <c r="G593" s="421"/>
+      <c r="H593" s="421"/>
+      <c r="I593" s="421"/>
+      <c r="J593" s="421"/>
+      <c r="K593" s="421"/>
+      <c r="L593" s="422"/>
       <c r="M593" s="24"/>
       <c r="N593" s="28"/>
       <c r="O593" s="401" t="s">
@@ -38928,20 +38928,20 @@
       <c r="Z608" s="267"/>
     </row>
     <row r="609" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="408" t="s">
+      <c r="A609" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B609" s="409"/>
-      <c r="C609" s="409"/>
-      <c r="D609" s="409"/>
-      <c r="E609" s="409"/>
-      <c r="F609" s="409"/>
-      <c r="G609" s="409"/>
-      <c r="H609" s="409"/>
-      <c r="I609" s="409"/>
-      <c r="J609" s="409"/>
-      <c r="K609" s="409"/>
-      <c r="L609" s="410"/>
+      <c r="B609" s="418"/>
+      <c r="C609" s="418"/>
+      <c r="D609" s="418"/>
+      <c r="E609" s="418"/>
+      <c r="F609" s="418"/>
+      <c r="G609" s="418"/>
+      <c r="H609" s="418"/>
+      <c r="I609" s="418"/>
+      <c r="J609" s="418"/>
+      <c r="K609" s="418"/>
+      <c r="L609" s="419"/>
       <c r="M609" s="24"/>
       <c r="N609" s="28"/>
       <c r="O609" s="401" t="s">
@@ -39122,16 +39122,16 @@
       </c>
       <c r="D613" s="270"/>
       <c r="E613" s="270"/>
-      <c r="F613" s="411" t="s">
+      <c r="F613" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G613" s="413"/>
+      <c r="G613" s="416"/>
       <c r="H613" s="270"/>
-      <c r="I613" s="411" t="s">
+      <c r="I613" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J613" s="412"/>
-      <c r="K613" s="413"/>
+      <c r="J613" s="415"/>
+      <c r="K613" s="416"/>
       <c r="L613" s="284"/>
       <c r="N613" s="35"/>
       <c r="O613" s="36" t="s">
@@ -39649,20 +39649,20 @@
       <c r="Z623" s="57"/>
     </row>
     <row r="624" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="408" t="s">
+      <c r="A624" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B624" s="409"/>
-      <c r="C624" s="409"/>
-      <c r="D624" s="409"/>
-      <c r="E624" s="409"/>
-      <c r="F624" s="409"/>
-      <c r="G624" s="409"/>
-      <c r="H624" s="409"/>
-      <c r="I624" s="409"/>
-      <c r="J624" s="409"/>
-      <c r="K624" s="409"/>
-      <c r="L624" s="410"/>
+      <c r="B624" s="418"/>
+      <c r="C624" s="418"/>
+      <c r="D624" s="418"/>
+      <c r="E624" s="418"/>
+      <c r="F624" s="418"/>
+      <c r="G624" s="418"/>
+      <c r="H624" s="418"/>
+      <c r="I624" s="418"/>
+      <c r="J624" s="418"/>
+      <c r="K624" s="418"/>
+      <c r="L624" s="419"/>
       <c r="M624" s="24"/>
       <c r="N624" s="28"/>
       <c r="O624" s="401" t="s">
@@ -39852,16 +39852,16 @@
       <c r="C628" s="283"/>
       <c r="D628" s="270"/>
       <c r="E628" s="270"/>
-      <c r="F628" s="411" t="s">
+      <c r="F628" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G628" s="413"/>
+      <c r="G628" s="416"/>
       <c r="H628" s="270"/>
-      <c r="I628" s="411" t="s">
+      <c r="I628" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J628" s="412"/>
-      <c r="K628" s="413"/>
+      <c r="J628" s="415"/>
+      <c r="K628" s="416"/>
       <c r="L628" s="284"/>
       <c r="N628" s="35"/>
       <c r="O628" s="36" t="s">
@@ -40022,14 +40022,14 @@
       </c>
       <c r="H631" s="285"/>
       <c r="I631" s="289">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J631" s="290" t="s">
         <v>60</v>
       </c>
       <c r="K631" s="294">
         <f>K626/$K$2/8*I631</f>
-        <v>4233.8709677419356</v>
+        <v>11290.322580645161</v>
       </c>
       <c r="L631" s="295"/>
       <c r="N631" s="35"/>
@@ -40083,7 +40083,7 @@
       <c r="J632" s="395"/>
       <c r="K632" s="294">
         <f>K630+K631</f>
-        <v>30201.612903225807</v>
+        <v>37258.06451612903</v>
       </c>
       <c r="L632" s="295"/>
       <c r="N632" s="35"/>
@@ -40197,7 +40197,7 @@
       <c r="J634" s="396"/>
       <c r="K634" s="229">
         <f>K632-K633</f>
-        <v>29201.612903225807</v>
+        <v>36258.06451612903</v>
       </c>
       <c r="L634" s="297"/>
       <c r="N634" s="35"/>
@@ -40238,9 +40238,14 @@
       <c r="F635" s="270"/>
       <c r="G635" s="270"/>
       <c r="H635" s="270"/>
-      <c r="I635" s="397"/>
+      <c r="I635" s="397">
+        <v>29200</v>
+      </c>
       <c r="J635" s="397"/>
-      <c r="K635" s="352"/>
+      <c r="K635" s="352">
+        <f>K634-I635</f>
+        <v>7058.0645161290304</v>
+      </c>
       <c r="L635" s="284"/>
       <c r="N635" s="35"/>
       <c r="O635" s="36" t="s">
@@ -40382,20 +40387,20 @@
       <c r="Z638" s="57"/>
     </row>
     <row r="639" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="414" t="s">
+      <c r="A639" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="B639" s="415"/>
-      <c r="C639" s="415"/>
-      <c r="D639" s="415"/>
-      <c r="E639" s="415"/>
-      <c r="F639" s="415"/>
-      <c r="G639" s="415"/>
-      <c r="H639" s="415"/>
-      <c r="I639" s="415"/>
-      <c r="J639" s="415"/>
-      <c r="K639" s="415"/>
-      <c r="L639" s="416"/>
+      <c r="B639" s="421"/>
+      <c r="C639" s="421"/>
+      <c r="D639" s="421"/>
+      <c r="E639" s="421"/>
+      <c r="F639" s="421"/>
+      <c r="G639" s="421"/>
+      <c r="H639" s="421"/>
+      <c r="I639" s="421"/>
+      <c r="J639" s="421"/>
+      <c r="K639" s="421"/>
+      <c r="L639" s="422"/>
       <c r="M639" s="24"/>
       <c r="N639" s="28"/>
       <c r="O639" s="401" t="s">
@@ -41115,20 +41120,20 @@
       <c r="Z654" s="27"/>
     </row>
     <row r="655" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="414" t="s">
+      <c r="A655" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="B655" s="415"/>
-      <c r="C655" s="415"/>
-      <c r="D655" s="415"/>
-      <c r="E655" s="415"/>
-      <c r="F655" s="415"/>
-      <c r="G655" s="415"/>
-      <c r="H655" s="415"/>
-      <c r="I655" s="415"/>
-      <c r="J655" s="415"/>
-      <c r="K655" s="415"/>
-      <c r="L655" s="416"/>
+      <c r="B655" s="421"/>
+      <c r="C655" s="421"/>
+      <c r="D655" s="421"/>
+      <c r="E655" s="421"/>
+      <c r="F655" s="421"/>
+      <c r="G655" s="421"/>
+      <c r="H655" s="421"/>
+      <c r="I655" s="421"/>
+      <c r="J655" s="421"/>
+      <c r="K655" s="421"/>
+      <c r="L655" s="422"/>
       <c r="M655" s="24"/>
       <c r="N655" s="28"/>
       <c r="O655" s="401" t="s">
@@ -41883,20 +41888,20 @@
       <c r="Z670" s="267"/>
     </row>
     <row r="671" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="414" t="s">
+      <c r="A671" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="B671" s="415"/>
-      <c r="C671" s="415"/>
-      <c r="D671" s="415"/>
-      <c r="E671" s="415"/>
-      <c r="F671" s="415"/>
-      <c r="G671" s="415"/>
-      <c r="H671" s="415"/>
-      <c r="I671" s="415"/>
-      <c r="J671" s="415"/>
-      <c r="K671" s="415"/>
-      <c r="L671" s="416"/>
+      <c r="B671" s="421"/>
+      <c r="C671" s="421"/>
+      <c r="D671" s="421"/>
+      <c r="E671" s="421"/>
+      <c r="F671" s="421"/>
+      <c r="G671" s="421"/>
+      <c r="H671" s="421"/>
+      <c r="I671" s="421"/>
+      <c r="J671" s="421"/>
+      <c r="K671" s="421"/>
+      <c r="L671" s="422"/>
       <c r="M671" s="24"/>
       <c r="N671" s="28"/>
       <c r="O671" s="401" t="s">
@@ -42543,20 +42548,20 @@
       <c r="Z686" s="267"/>
     </row>
     <row r="687" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="408" t="s">
+      <c r="A687" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B687" s="409"/>
-      <c r="C687" s="409"/>
-      <c r="D687" s="409"/>
-      <c r="E687" s="409"/>
-      <c r="F687" s="409"/>
-      <c r="G687" s="409"/>
-      <c r="H687" s="409"/>
-      <c r="I687" s="409"/>
-      <c r="J687" s="409"/>
-      <c r="K687" s="409"/>
-      <c r="L687" s="410"/>
+      <c r="B687" s="418"/>
+      <c r="C687" s="418"/>
+      <c r="D687" s="418"/>
+      <c r="E687" s="418"/>
+      <c r="F687" s="418"/>
+      <c r="G687" s="418"/>
+      <c r="H687" s="418"/>
+      <c r="I687" s="418"/>
+      <c r="J687" s="418"/>
+      <c r="K687" s="418"/>
+      <c r="L687" s="419"/>
       <c r="M687" s="24"/>
       <c r="N687" s="28"/>
       <c r="O687" s="401" t="s">
@@ -42739,21 +42744,21 @@
       <c r="B691" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="C691" s="423">
+      <c r="C691" s="431">
         <v>45208</v>
       </c>
-      <c r="D691" s="423"/>
-      <c r="E691" s="424"/>
-      <c r="F691" s="411" t="s">
+      <c r="D691" s="431"/>
+      <c r="E691" s="432"/>
+      <c r="F691" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G691" s="413"/>
+      <c r="G691" s="416"/>
       <c r="H691" s="270"/>
-      <c r="I691" s="411" t="s">
+      <c r="I691" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J691" s="412"/>
-      <c r="K691" s="413"/>
+      <c r="J691" s="415"/>
+      <c r="K691" s="416"/>
       <c r="L691" s="284"/>
       <c r="N691" s="35"/>
       <c r="O691" s="36" t="s">
@@ -43269,20 +43274,20 @@
       <c r="Z701" s="27"/>
     </row>
     <row r="702" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="408" t="s">
+      <c r="A702" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B702" s="409"/>
-      <c r="C702" s="409"/>
-      <c r="D702" s="409"/>
-      <c r="E702" s="409"/>
-      <c r="F702" s="409"/>
-      <c r="G702" s="409"/>
-      <c r="H702" s="409"/>
-      <c r="I702" s="409"/>
-      <c r="J702" s="409"/>
-      <c r="K702" s="409"/>
-      <c r="L702" s="410"/>
+      <c r="B702" s="418"/>
+      <c r="C702" s="418"/>
+      <c r="D702" s="418"/>
+      <c r="E702" s="418"/>
+      <c r="F702" s="418"/>
+      <c r="G702" s="418"/>
+      <c r="H702" s="418"/>
+      <c r="I702" s="418"/>
+      <c r="J702" s="418"/>
+      <c r="K702" s="418"/>
+      <c r="L702" s="419"/>
       <c r="M702" s="24"/>
       <c r="N702" s="28"/>
       <c r="O702" s="401" t="s">
@@ -43462,16 +43467,16 @@
       </c>
       <c r="D706" s="270"/>
       <c r="E706" s="270"/>
-      <c r="F706" s="411" t="s">
+      <c r="F706" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G706" s="413"/>
+      <c r="G706" s="416"/>
       <c r="H706" s="270"/>
-      <c r="I706" s="411" t="s">
+      <c r="I706" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J706" s="412"/>
-      <c r="K706" s="413"/>
+      <c r="J706" s="415"/>
+      <c r="K706" s="416"/>
       <c r="L706" s="284"/>
       <c r="N706" s="35"/>
       <c r="O706" s="36" t="s">
@@ -43989,20 +43994,20 @@
       <c r="Z716" s="27"/>
     </row>
     <row r="717" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="425" t="s">
+      <c r="A717" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B717" s="426"/>
-      <c r="C717" s="426"/>
-      <c r="D717" s="426"/>
-      <c r="E717" s="426"/>
-      <c r="F717" s="426"/>
-      <c r="G717" s="426"/>
-      <c r="H717" s="426"/>
-      <c r="I717" s="426"/>
-      <c r="J717" s="426"/>
-      <c r="K717" s="426"/>
-      <c r="L717" s="427"/>
+      <c r="B717" s="409"/>
+      <c r="C717" s="409"/>
+      <c r="D717" s="409"/>
+      <c r="E717" s="409"/>
+      <c r="F717" s="409"/>
+      <c r="G717" s="409"/>
+      <c r="H717" s="409"/>
+      <c r="I717" s="409"/>
+      <c r="J717" s="409"/>
+      <c r="K717" s="409"/>
+      <c r="L717" s="410"/>
       <c r="M717" s="24"/>
       <c r="N717" s="28"/>
       <c r="O717" s="401" t="s">
@@ -44747,20 +44752,20 @@
       <c r="Z732" s="27"/>
     </row>
     <row r="733" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="414" t="s">
+      <c r="A733" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="B733" s="415"/>
-      <c r="C733" s="415"/>
-      <c r="D733" s="415"/>
-      <c r="E733" s="415"/>
-      <c r="F733" s="415"/>
-      <c r="G733" s="415"/>
-      <c r="H733" s="415"/>
-      <c r="I733" s="415"/>
-      <c r="J733" s="415"/>
-      <c r="K733" s="415"/>
-      <c r="L733" s="416"/>
+      <c r="B733" s="421"/>
+      <c r="C733" s="421"/>
+      <c r="D733" s="421"/>
+      <c r="E733" s="421"/>
+      <c r="F733" s="421"/>
+      <c r="G733" s="421"/>
+      <c r="H733" s="421"/>
+      <c r="I733" s="421"/>
+      <c r="J733" s="421"/>
+      <c r="K733" s="421"/>
+      <c r="L733" s="422"/>
       <c r="M733" s="24"/>
       <c r="N733" s="28"/>
       <c r="O733" s="401" t="s">
@@ -45491,20 +45496,20 @@
       <c r="Z748" s="27"/>
     </row>
     <row r="749" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="408" t="s">
+      <c r="A749" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B749" s="409"/>
-      <c r="C749" s="409"/>
-      <c r="D749" s="409"/>
-      <c r="E749" s="409"/>
-      <c r="F749" s="409"/>
-      <c r="G749" s="409"/>
-      <c r="H749" s="409"/>
-      <c r="I749" s="409"/>
-      <c r="J749" s="409"/>
-      <c r="K749" s="409"/>
-      <c r="L749" s="410"/>
+      <c r="B749" s="418"/>
+      <c r="C749" s="418"/>
+      <c r="D749" s="418"/>
+      <c r="E749" s="418"/>
+      <c r="F749" s="418"/>
+      <c r="G749" s="418"/>
+      <c r="H749" s="418"/>
+      <c r="I749" s="418"/>
+      <c r="J749" s="418"/>
+      <c r="K749" s="418"/>
+      <c r="L749" s="419"/>
       <c r="M749" s="24"/>
       <c r="N749" s="28"/>
       <c r="O749" s="401" t="s">
@@ -45677,16 +45682,16 @@
       <c r="C753" s="283"/>
       <c r="D753" s="270"/>
       <c r="E753" s="270"/>
-      <c r="F753" s="411" t="s">
+      <c r="F753" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G753" s="413"/>
+      <c r="G753" s="416"/>
       <c r="H753" s="270"/>
-      <c r="I753" s="411" t="s">
+      <c r="I753" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J753" s="412"/>
-      <c r="K753" s="413"/>
+      <c r="J753" s="415"/>
+      <c r="K753" s="416"/>
       <c r="L753" s="284"/>
       <c r="N753" s="35"/>
       <c r="O753" s="36" t="s">
@@ -46187,20 +46192,20 @@
       <c r="Z763" s="57"/>
     </row>
     <row r="764" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="420" t="s">
+      <c r="A764" s="428" t="s">
         <v>38</v>
       </c>
-      <c r="B764" s="421"/>
-      <c r="C764" s="421"/>
-      <c r="D764" s="421"/>
-      <c r="E764" s="421"/>
-      <c r="F764" s="421"/>
-      <c r="G764" s="421"/>
-      <c r="H764" s="421"/>
-      <c r="I764" s="421"/>
-      <c r="J764" s="421"/>
-      <c r="K764" s="421"/>
-      <c r="L764" s="422"/>
+      <c r="B764" s="429"/>
+      <c r="C764" s="429"/>
+      <c r="D764" s="429"/>
+      <c r="E764" s="429"/>
+      <c r="F764" s="429"/>
+      <c r="G764" s="429"/>
+      <c r="H764" s="429"/>
+      <c r="I764" s="429"/>
+      <c r="J764" s="429"/>
+      <c r="K764" s="429"/>
+      <c r="L764" s="430"/>
       <c r="M764" s="24"/>
       <c r="N764" s="28"/>
       <c r="O764" s="401" t="s">
@@ -46892,20 +46897,20 @@
       <c r="Z778" s="43"/>
     </row>
     <row r="779" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="408" t="s">
+      <c r="A779" s="417" t="s">
         <v>38</v>
       </c>
-      <c r="B779" s="409"/>
-      <c r="C779" s="409"/>
-      <c r="D779" s="409"/>
-      <c r="E779" s="409"/>
-      <c r="F779" s="409"/>
-      <c r="G779" s="409"/>
-      <c r="H779" s="409"/>
-      <c r="I779" s="409"/>
-      <c r="J779" s="409"/>
-      <c r="K779" s="409"/>
-      <c r="L779" s="410"/>
+      <c r="B779" s="418"/>
+      <c r="C779" s="418"/>
+      <c r="D779" s="418"/>
+      <c r="E779" s="418"/>
+      <c r="F779" s="418"/>
+      <c r="G779" s="418"/>
+      <c r="H779" s="418"/>
+      <c r="I779" s="418"/>
+      <c r="J779" s="418"/>
+      <c r="K779" s="418"/>
+      <c r="L779" s="419"/>
       <c r="M779" s="24"/>
       <c r="N779" s="28"/>
       <c r="O779" s="401" t="s">
@@ -47097,16 +47102,16 @@
       </c>
       <c r="D783" s="270"/>
       <c r="E783" s="270"/>
-      <c r="F783" s="411" t="s">
+      <c r="F783" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="G783" s="413"/>
+      <c r="G783" s="416"/>
       <c r="H783" s="270"/>
-      <c r="I783" s="411" t="s">
+      <c r="I783" s="414" t="s">
         <v>42</v>
       </c>
-      <c r="J783" s="412"/>
-      <c r="K783" s="413"/>
+      <c r="J783" s="415"/>
+      <c r="K783" s="416"/>
       <c r="L783" s="284"/>
       <c r="N783" s="35"/>
       <c r="O783" s="36" t="s">
@@ -47691,20 +47696,20 @@
       <c r="Z795" s="27"/>
     </row>
     <row r="796" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="433" t="s">
+      <c r="A796" s="411" t="s">
         <v>38</v>
       </c>
-      <c r="B796" s="434"/>
-      <c r="C796" s="434"/>
-      <c r="D796" s="434"/>
-      <c r="E796" s="434"/>
-      <c r="F796" s="434"/>
-      <c r="G796" s="434"/>
-      <c r="H796" s="434"/>
-      <c r="I796" s="434"/>
-      <c r="J796" s="434"/>
-      <c r="K796" s="434"/>
-      <c r="L796" s="435"/>
+      <c r="B796" s="412"/>
+      <c r="C796" s="412"/>
+      <c r="D796" s="412"/>
+      <c r="E796" s="412"/>
+      <c r="F796" s="412"/>
+      <c r="G796" s="412"/>
+      <c r="H796" s="412"/>
+      <c r="I796" s="412"/>
+      <c r="J796" s="412"/>
+      <c r="K796" s="412"/>
+      <c r="L796" s="413"/>
       <c r="M796" s="24"/>
       <c r="N796" s="28"/>
       <c r="O796" s="401" t="s">
@@ -48448,20 +48453,20 @@
       <c r="Z811" s="27"/>
     </row>
     <row r="812" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="425" t="s">
+      <c r="A812" s="408" t="s">
         <v>38</v>
       </c>
-      <c r="B812" s="426"/>
-      <c r="C812" s="426"/>
-      <c r="D812" s="426"/>
-      <c r="E812" s="426"/>
-      <c r="F812" s="426"/>
-      <c r="G812" s="426"/>
-      <c r="H812" s="426"/>
-      <c r="I812" s="426"/>
-      <c r="J812" s="426"/>
-      <c r="K812" s="426"/>
-      <c r="L812" s="427"/>
+      <c r="B812" s="409"/>
+      <c r="C812" s="409"/>
+      <c r="D812" s="409"/>
+      <c r="E812" s="409"/>
+      <c r="F812" s="409"/>
+      <c r="G812" s="409"/>
+      <c r="H812" s="409"/>
+      <c r="I812" s="409"/>
+      <c r="J812" s="409"/>
+      <c r="K812" s="409"/>
+      <c r="L812" s="410"/>
       <c r="M812" s="24"/>
       <c r="N812" s="28"/>
       <c r="O812" s="401" t="s">
@@ -51387,19 +51392,711 @@
     <row r="877" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="742">
-    <mergeCell ref="I869:J869"/>
-    <mergeCell ref="I870:J870"/>
-    <mergeCell ref="I871:J871"/>
-    <mergeCell ref="I872:J872"/>
-    <mergeCell ref="A860:L860"/>
-    <mergeCell ref="O860:R860"/>
-    <mergeCell ref="T860:Y860"/>
-    <mergeCell ref="C861:F861"/>
-    <mergeCell ref="H861:I861"/>
-    <mergeCell ref="F864:G864"/>
-    <mergeCell ref="I864:K864"/>
-    <mergeCell ref="B866:C866"/>
-    <mergeCell ref="I868:J868"/>
+    <mergeCell ref="I853:J853"/>
+    <mergeCell ref="I854:J854"/>
+    <mergeCell ref="I855:J855"/>
+    <mergeCell ref="I856:J856"/>
+    <mergeCell ref="A844:L844"/>
+    <mergeCell ref="O844:R844"/>
+    <mergeCell ref="T844:Y844"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="H845:I845"/>
+    <mergeCell ref="F848:G848"/>
+    <mergeCell ref="I848:K848"/>
+    <mergeCell ref="B850:C850"/>
+    <mergeCell ref="I852:J852"/>
+    <mergeCell ref="O655:R655"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="I511:J511"/>
+    <mergeCell ref="I512:J512"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="A382:L382"/>
+    <mergeCell ref="O578:R578"/>
+    <mergeCell ref="I586:J586"/>
+    <mergeCell ref="I582:K582"/>
+    <mergeCell ref="H489:I489"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="I492:K492"/>
+    <mergeCell ref="I421:J421"/>
+    <mergeCell ref="C549:F549"/>
+    <mergeCell ref="I618:J618"/>
+    <mergeCell ref="I423:J423"/>
+    <mergeCell ref="A443:L443"/>
+    <mergeCell ref="A458:L458"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="I462:K462"/>
+    <mergeCell ref="A428:L428"/>
+    <mergeCell ref="I438:J438"/>
+    <mergeCell ref="H459:I459"/>
+    <mergeCell ref="A593:L593"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="I316:J316"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="O307:R307"/>
+    <mergeCell ref="I301:J301"/>
+    <mergeCell ref="O277:R277"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="A247:L247"/>
+    <mergeCell ref="C263:F263"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="I270:J270"/>
+    <mergeCell ref="I315:J315"/>
+    <mergeCell ref="I302:J302"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="T828:Y828"/>
+    <mergeCell ref="T812:Y812"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="O563:R563"/>
+    <mergeCell ref="O548:R548"/>
+    <mergeCell ref="O443:R443"/>
+    <mergeCell ref="H549:I549"/>
+    <mergeCell ref="O488:R488"/>
+    <mergeCell ref="O533:R533"/>
+    <mergeCell ref="T796:Y796"/>
+    <mergeCell ref="A232:L232"/>
+    <mergeCell ref="I242:J242"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="I236:K236"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="O367:R367"/>
+    <mergeCell ref="A262:L262"/>
+    <mergeCell ref="I266:K266"/>
+    <mergeCell ref="I346:J346"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I311:K311"/>
+    <mergeCell ref="A337:L337"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T322:Y322"/>
+    <mergeCell ref="T307:Y307"/>
+    <mergeCell ref="T277:Y277"/>
+    <mergeCell ref="T352:Y352"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="C248:F248"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="H353:I353"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I251:K251"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="I227:J227"/>
+    <mergeCell ref="O202:R202"/>
+    <mergeCell ref="O187:R187"/>
+    <mergeCell ref="O157:R157"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="I273:J273"/>
+    <mergeCell ref="I274:J274"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="O172:R172"/>
+    <mergeCell ref="T7:Y7"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I634:J634"/>
+    <mergeCell ref="A533:L533"/>
+    <mergeCell ref="I543:J543"/>
+    <mergeCell ref="C429:F429"/>
+    <mergeCell ref="C504:F504"/>
+    <mergeCell ref="H504:I504"/>
+    <mergeCell ref="F507:G507"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="I507:K507"/>
+    <mergeCell ref="T413:Y413"/>
+    <mergeCell ref="C353:F353"/>
+    <mergeCell ref="I362:J362"/>
+    <mergeCell ref="C338:F338"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="O624:R624"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="O702:R702"/>
+    <mergeCell ref="B661:C661"/>
+    <mergeCell ref="C734:F734"/>
+    <mergeCell ref="O764:R764"/>
+    <mergeCell ref="H703:I703"/>
+    <mergeCell ref="H672:I672"/>
+    <mergeCell ref="A671:L671"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="C414:F414"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="I377:J377"/>
+    <mergeCell ref="O413:R413"/>
+    <mergeCell ref="I386:K386"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="I375:J375"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="A413:L413"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="O217:R217"/>
+    <mergeCell ref="A202:L202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="A624:L624"/>
+    <mergeCell ref="A749:L749"/>
+    <mergeCell ref="F691:G691"/>
+    <mergeCell ref="I691:K691"/>
+    <mergeCell ref="H688:I688"/>
+    <mergeCell ref="F628:G628"/>
+    <mergeCell ref="I758:J758"/>
+    <mergeCell ref="I742:J742"/>
+    <mergeCell ref="I647:J647"/>
+    <mergeCell ref="I697:J697"/>
+    <mergeCell ref="C640:F640"/>
+    <mergeCell ref="H640:I640"/>
+    <mergeCell ref="I628:K628"/>
+    <mergeCell ref="C656:F656"/>
+    <mergeCell ref="A655:L655"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="I635:J635"/>
+    <mergeCell ref="I636:J636"/>
+    <mergeCell ref="I650:J650"/>
+    <mergeCell ref="I633:J633"/>
+    <mergeCell ref="I664:J664"/>
+    <mergeCell ref="I643:K643"/>
+    <mergeCell ref="I728:J728"/>
+    <mergeCell ref="O593:R593"/>
+    <mergeCell ref="O733:R733"/>
+    <mergeCell ref="B693:C693"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="O828:R828"/>
+    <mergeCell ref="F832:G832"/>
+    <mergeCell ref="H813:I813"/>
+    <mergeCell ref="I783:K783"/>
+    <mergeCell ref="F737:G737"/>
+    <mergeCell ref="I788:J788"/>
+    <mergeCell ref="A764:L764"/>
+    <mergeCell ref="O812:R812"/>
+    <mergeCell ref="B785:C785"/>
+    <mergeCell ref="I787:J787"/>
+    <mergeCell ref="I789:J789"/>
+    <mergeCell ref="C691:E691"/>
+    <mergeCell ref="I695:J695"/>
+    <mergeCell ref="I696:J696"/>
+    <mergeCell ref="O796:R796"/>
+    <mergeCell ref="F721:G721"/>
+    <mergeCell ref="F753:G753"/>
+    <mergeCell ref="I721:K721"/>
+    <mergeCell ref="O609:R609"/>
+    <mergeCell ref="I648:J648"/>
+    <mergeCell ref="T624:Y624"/>
+    <mergeCell ref="I741:J741"/>
+    <mergeCell ref="I759:J759"/>
+    <mergeCell ref="I768:K768"/>
+    <mergeCell ref="O717:R717"/>
+    <mergeCell ref="T717:Y717"/>
+    <mergeCell ref="T671:Y671"/>
+    <mergeCell ref="T639:Y639"/>
+    <mergeCell ref="A779:L779"/>
+    <mergeCell ref="T702:Y702"/>
+    <mergeCell ref="T749:Y749"/>
+    <mergeCell ref="F768:G768"/>
+    <mergeCell ref="T764:Y764"/>
+    <mergeCell ref="T779:Y779"/>
+    <mergeCell ref="O779:R779"/>
+    <mergeCell ref="I773:J773"/>
+    <mergeCell ref="B770:C770"/>
+    <mergeCell ref="O639:R639"/>
+    <mergeCell ref="O671:R671"/>
+    <mergeCell ref="O749:R749"/>
+    <mergeCell ref="A639:L639"/>
+    <mergeCell ref="A717:L717"/>
+    <mergeCell ref="B723:C723"/>
+    <mergeCell ref="I665:J665"/>
+    <mergeCell ref="I800:K800"/>
+    <mergeCell ref="B739:C739"/>
+    <mergeCell ref="I774:J774"/>
+    <mergeCell ref="H656:I656"/>
+    <mergeCell ref="I757:J757"/>
+    <mergeCell ref="F706:G706"/>
+    <mergeCell ref="C489:F489"/>
+    <mergeCell ref="I681:J681"/>
+    <mergeCell ref="F675:G675"/>
+    <mergeCell ref="I587:J587"/>
+    <mergeCell ref="C625:F625"/>
+    <mergeCell ref="A518:L518"/>
+    <mergeCell ref="C579:F579"/>
+    <mergeCell ref="I497:J497"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="I558:J558"/>
+    <mergeCell ref="B554:C554"/>
+    <mergeCell ref="B630:C630"/>
+    <mergeCell ref="I542:J542"/>
+    <mergeCell ref="I557:J557"/>
+    <mergeCell ref="I603:J603"/>
+    <mergeCell ref="C594:F594"/>
+    <mergeCell ref="I710:J710"/>
+    <mergeCell ref="C703:F703"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="O247:R247"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="I417:K417"/>
+    <mergeCell ref="H338:I338"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="A307:L307"/>
+    <mergeCell ref="I300:J300"/>
+    <mergeCell ref="I285:J285"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="A292:L292"/>
+    <mergeCell ref="I286:J286"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="H368:I368"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="I221:K221"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="I225:J225"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="I522:K522"/>
+    <mergeCell ref="I498:J498"/>
+    <mergeCell ref="I466:J466"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="I371:K371"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="B464:C464"/>
+    <mergeCell ref="C323:F323"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="I296:K296"/>
+    <mergeCell ref="I326:K326"/>
+    <mergeCell ref="I331:J331"/>
+    <mergeCell ref="I332:J332"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="A352:L352"/>
+    <mergeCell ref="I406:J406"/>
+    <mergeCell ref="I356:K356"/>
+    <mergeCell ref="I288:J288"/>
+    <mergeCell ref="I514:J514"/>
+    <mergeCell ref="I515:J515"/>
+    <mergeCell ref="I347:J347"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="H398:I398"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="A322:L322"/>
+    <mergeCell ref="B539:C539"/>
+    <mergeCell ref="I541:J541"/>
+    <mergeCell ref="I334:J334"/>
+    <mergeCell ref="I348:J348"/>
+    <mergeCell ref="I349:J349"/>
+    <mergeCell ref="I363:J363"/>
+    <mergeCell ref="I364:J364"/>
+    <mergeCell ref="I378:J378"/>
+    <mergeCell ref="I379:J379"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="I394:J394"/>
+    <mergeCell ref="I408:J408"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I424:J424"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="A397:L397"/>
+    <mergeCell ref="I401:K401"/>
+    <mergeCell ref="H414:I414"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="B599:C599"/>
+    <mergeCell ref="H625:I625"/>
+    <mergeCell ref="H564:I564"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="I632:J632"/>
+    <mergeCell ref="I619:J619"/>
+    <mergeCell ref="I617:J617"/>
+    <mergeCell ref="C564:F564"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="C519:F519"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="F567:G567"/>
+    <mergeCell ref="I589:J589"/>
+    <mergeCell ref="I590:J590"/>
+    <mergeCell ref="I604:J604"/>
+    <mergeCell ref="I605:J605"/>
+    <mergeCell ref="I620:J620"/>
+    <mergeCell ref="I621:J621"/>
+    <mergeCell ref="A578:L578"/>
+    <mergeCell ref="I588:J588"/>
+    <mergeCell ref="F597:G597"/>
+    <mergeCell ref="I597:K597"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="I226:J226"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A217:L217"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B802:C802"/>
+    <mergeCell ref="B677:C677"/>
+    <mergeCell ref="H610:I610"/>
+    <mergeCell ref="I772:J772"/>
+    <mergeCell ref="I743:J743"/>
+    <mergeCell ref="F356:G356"/>
+    <mergeCell ref="I470:J470"/>
+    <mergeCell ref="I484:J484"/>
+    <mergeCell ref="C474:F474"/>
+    <mergeCell ref="A473:L473"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="B615:C615"/>
+    <mergeCell ref="I726:J726"/>
+    <mergeCell ref="F659:G659"/>
+    <mergeCell ref="I659:K659"/>
+    <mergeCell ref="H594:I594"/>
+    <mergeCell ref="A687:L687"/>
+    <mergeCell ref="A702:L702"/>
+    <mergeCell ref="I573:J573"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="B494:C494"/>
+    <mergeCell ref="C797:F797"/>
+    <mergeCell ref="H797:I797"/>
+    <mergeCell ref="I725:J725"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I176:K176"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="A157:L157"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="T127:Y127"/>
+    <mergeCell ref="T157:Y157"/>
+    <mergeCell ref="O142:R142"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T112:Y112"/>
+    <mergeCell ref="T172:Y172"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="T187:Y187"/>
+    <mergeCell ref="T609:Y609"/>
+    <mergeCell ref="I526:J526"/>
+    <mergeCell ref="I361:J361"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="I537:K537"/>
+    <mergeCell ref="H474:I474"/>
+    <mergeCell ref="I272:J272"/>
+    <mergeCell ref="I482:J482"/>
+    <mergeCell ref="C278:F278"/>
+    <mergeCell ref="I432:K432"/>
+    <mergeCell ref="I390:J390"/>
+    <mergeCell ref="I391:J391"/>
+    <mergeCell ref="I392:J392"/>
+    <mergeCell ref="I468:J468"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="A277:L277"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="I341:K341"/>
+    <mergeCell ref="I451:J451"/>
+    <mergeCell ref="I452:J452"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="A142:L142"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="T563:Y563"/>
+    <mergeCell ref="T262:Y262"/>
+    <mergeCell ref="O292:R292"/>
+    <mergeCell ref="O337:R337"/>
+    <mergeCell ref="I360:J360"/>
+    <mergeCell ref="T473:Y473"/>
+    <mergeCell ref="T428:Y428"/>
+    <mergeCell ref="O473:R473"/>
+    <mergeCell ref="T533:Y533"/>
+    <mergeCell ref="T443:Y443"/>
+    <mergeCell ref="T503:Y503"/>
+    <mergeCell ref="O428:R428"/>
+    <mergeCell ref="T488:Y488"/>
+    <mergeCell ref="T458:Y458"/>
+    <mergeCell ref="I425:J425"/>
+    <mergeCell ref="I439:J439"/>
+    <mergeCell ref="I440:J440"/>
+    <mergeCell ref="I454:J454"/>
+    <mergeCell ref="I455:J455"/>
+    <mergeCell ref="I469:J469"/>
+    <mergeCell ref="I499:J499"/>
+    <mergeCell ref="I318:J318"/>
+    <mergeCell ref="I319:J319"/>
+    <mergeCell ref="I333:J333"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="I679:J679"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I567:K567"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="I161:K161"/>
+    <mergeCell ref="F582:G582"/>
+    <mergeCell ref="H579:I579"/>
+    <mergeCell ref="I675:K675"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I330:J330"/>
+    <mergeCell ref="I500:J500"/>
+    <mergeCell ref="I552:K552"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="A609:L609"/>
+    <mergeCell ref="B434:C434"/>
+    <mergeCell ref="T202:Y202"/>
+    <mergeCell ref="T337:Y337"/>
+    <mergeCell ref="T518:Y518"/>
+    <mergeCell ref="T232:Y232"/>
+    <mergeCell ref="O458:R458"/>
+    <mergeCell ref="T382:Y382"/>
+    <mergeCell ref="T397:Y397"/>
+    <mergeCell ref="O397:R397"/>
+    <mergeCell ref="O518:R518"/>
+    <mergeCell ref="O503:R503"/>
+    <mergeCell ref="T247:Y247"/>
+    <mergeCell ref="T217:Y217"/>
+    <mergeCell ref="T292:Y292"/>
+    <mergeCell ref="T367:Y367"/>
+    <mergeCell ref="O352:R352"/>
+    <mergeCell ref="O232:R232"/>
+    <mergeCell ref="O322:R322"/>
+    <mergeCell ref="O382:R382"/>
+    <mergeCell ref="O262:R262"/>
+    <mergeCell ref="C780:F780"/>
+    <mergeCell ref="A563:L563"/>
+    <mergeCell ref="I753:K753"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="H750:I750"/>
+    <mergeCell ref="A733:L733"/>
+    <mergeCell ref="I649:J649"/>
+    <mergeCell ref="B755:C755"/>
+    <mergeCell ref="I527:J527"/>
+    <mergeCell ref="I556:J556"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="B584:C584"/>
+    <mergeCell ref="I613:K613"/>
+    <mergeCell ref="F613:G613"/>
+    <mergeCell ref="I601:J601"/>
+    <mergeCell ref="I602:J602"/>
+    <mergeCell ref="I528:J528"/>
+    <mergeCell ref="B645:C645"/>
+    <mergeCell ref="C718:F718"/>
+    <mergeCell ref="I680:J680"/>
+    <mergeCell ref="I663:J663"/>
+    <mergeCell ref="F537:G537"/>
+    <mergeCell ref="I575:J575"/>
+    <mergeCell ref="F643:G643"/>
+    <mergeCell ref="T578:Y578"/>
+    <mergeCell ref="T548:Y548"/>
+    <mergeCell ref="I485:J485"/>
+    <mergeCell ref="H829:I829"/>
+    <mergeCell ref="I571:J571"/>
+    <mergeCell ref="I447:K447"/>
+    <mergeCell ref="A503:L503"/>
+    <mergeCell ref="B569:C569"/>
+    <mergeCell ref="I572:J572"/>
+    <mergeCell ref="A548:L548"/>
+    <mergeCell ref="F552:G552"/>
+    <mergeCell ref="I477:K477"/>
+    <mergeCell ref="I820:J820"/>
+    <mergeCell ref="F816:G816"/>
+    <mergeCell ref="C829:F829"/>
+    <mergeCell ref="I821:J821"/>
+    <mergeCell ref="I816:K816"/>
+    <mergeCell ref="I711:J711"/>
+    <mergeCell ref="I513:J513"/>
+    <mergeCell ref="A488:L488"/>
+    <mergeCell ref="I483:J483"/>
+    <mergeCell ref="I712:J712"/>
+    <mergeCell ref="F800:G800"/>
+    <mergeCell ref="F783:G783"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="T733:Y733"/>
+    <mergeCell ref="I727:J727"/>
+    <mergeCell ref="T687:Y687"/>
+    <mergeCell ref="O687:R687"/>
+    <mergeCell ref="T655:Y655"/>
+    <mergeCell ref="T593:Y593"/>
+    <mergeCell ref="A367:L367"/>
+    <mergeCell ref="I453:J453"/>
+    <mergeCell ref="C444:F444"/>
+    <mergeCell ref="I481:J481"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="I407:J407"/>
+    <mergeCell ref="I376:J376"/>
+    <mergeCell ref="I496:J496"/>
+    <mergeCell ref="I467:J467"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I191:K191"/>
+    <mergeCell ref="A172:L172"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="I228:J228"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I243:J243"/>
+    <mergeCell ref="I244:J244"/>
+    <mergeCell ref="I241:J241"/>
+    <mergeCell ref="I289:J289"/>
+    <mergeCell ref="I303:J303"/>
+    <mergeCell ref="I304:J304"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="I271:J271"/>
+    <mergeCell ref="I281:K281"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I422:J422"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="I545:J545"/>
+    <mergeCell ref="I559:J559"/>
+    <mergeCell ref="I560:J560"/>
+    <mergeCell ref="I574:J574"/>
+    <mergeCell ref="H519:I519"/>
+    <mergeCell ref="I529:J529"/>
+    <mergeCell ref="I530:J530"/>
+    <mergeCell ref="I544:J544"/>
+    <mergeCell ref="I729:J729"/>
+    <mergeCell ref="I744:J744"/>
+    <mergeCell ref="I745:J745"/>
+    <mergeCell ref="I706:K706"/>
+    <mergeCell ref="I760:J760"/>
+    <mergeCell ref="I761:J761"/>
+    <mergeCell ref="I775:J775"/>
+    <mergeCell ref="I651:J651"/>
+    <mergeCell ref="I666:J666"/>
+    <mergeCell ref="I667:J667"/>
+    <mergeCell ref="I682:J682"/>
+    <mergeCell ref="I683:J683"/>
+    <mergeCell ref="I698:J698"/>
+    <mergeCell ref="I699:J699"/>
+    <mergeCell ref="I713:J713"/>
+    <mergeCell ref="I714:J714"/>
+    <mergeCell ref="I737:K737"/>
+    <mergeCell ref="H734:I734"/>
+    <mergeCell ref="H718:I718"/>
+    <mergeCell ref="H765:I765"/>
     <mergeCell ref="I776:J776"/>
     <mergeCell ref="I790:J790"/>
     <mergeCell ref="I791:J791"/>
@@ -51424,711 +52121,19 @@
     <mergeCell ref="B834:C834"/>
     <mergeCell ref="I822:J822"/>
     <mergeCell ref="C813:F813"/>
-    <mergeCell ref="I729:J729"/>
-    <mergeCell ref="I744:J744"/>
-    <mergeCell ref="I745:J745"/>
-    <mergeCell ref="I706:K706"/>
-    <mergeCell ref="I760:J760"/>
-    <mergeCell ref="I761:J761"/>
-    <mergeCell ref="I775:J775"/>
-    <mergeCell ref="I651:J651"/>
-    <mergeCell ref="I666:J666"/>
-    <mergeCell ref="I667:J667"/>
-    <mergeCell ref="I682:J682"/>
-    <mergeCell ref="I683:J683"/>
-    <mergeCell ref="I698:J698"/>
-    <mergeCell ref="I699:J699"/>
-    <mergeCell ref="I713:J713"/>
-    <mergeCell ref="I714:J714"/>
-    <mergeCell ref="I737:K737"/>
-    <mergeCell ref="H734:I734"/>
-    <mergeCell ref="H718:I718"/>
-    <mergeCell ref="H765:I765"/>
-    <mergeCell ref="I422:J422"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="I545:J545"/>
-    <mergeCell ref="I559:J559"/>
-    <mergeCell ref="I560:J560"/>
-    <mergeCell ref="I574:J574"/>
-    <mergeCell ref="H519:I519"/>
-    <mergeCell ref="I529:J529"/>
-    <mergeCell ref="I530:J530"/>
-    <mergeCell ref="I544:J544"/>
-    <mergeCell ref="I214:J214"/>
-    <mergeCell ref="I228:J228"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I243:J243"/>
-    <mergeCell ref="I244:J244"/>
-    <mergeCell ref="I241:J241"/>
-    <mergeCell ref="I289:J289"/>
-    <mergeCell ref="I303:J303"/>
-    <mergeCell ref="I304:J304"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="I271:J271"/>
-    <mergeCell ref="I281:K281"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I191:K191"/>
-    <mergeCell ref="A172:L172"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="C188:F188"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="T733:Y733"/>
-    <mergeCell ref="I727:J727"/>
-    <mergeCell ref="T687:Y687"/>
-    <mergeCell ref="O687:R687"/>
-    <mergeCell ref="T655:Y655"/>
-    <mergeCell ref="T593:Y593"/>
-    <mergeCell ref="A367:L367"/>
-    <mergeCell ref="I453:J453"/>
-    <mergeCell ref="C444:F444"/>
-    <mergeCell ref="I481:J481"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="I407:J407"/>
-    <mergeCell ref="I376:J376"/>
-    <mergeCell ref="I496:J496"/>
-    <mergeCell ref="I467:J467"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="T578:Y578"/>
-    <mergeCell ref="T548:Y548"/>
-    <mergeCell ref="I485:J485"/>
-    <mergeCell ref="H829:I829"/>
-    <mergeCell ref="I571:J571"/>
-    <mergeCell ref="I447:K447"/>
-    <mergeCell ref="A503:L503"/>
-    <mergeCell ref="B569:C569"/>
-    <mergeCell ref="I572:J572"/>
-    <mergeCell ref="A548:L548"/>
-    <mergeCell ref="F552:G552"/>
-    <mergeCell ref="I477:K477"/>
-    <mergeCell ref="I820:J820"/>
-    <mergeCell ref="F816:G816"/>
-    <mergeCell ref="C829:F829"/>
-    <mergeCell ref="I821:J821"/>
-    <mergeCell ref="I816:K816"/>
-    <mergeCell ref="I711:J711"/>
-    <mergeCell ref="I513:J513"/>
-    <mergeCell ref="A488:L488"/>
-    <mergeCell ref="I483:J483"/>
-    <mergeCell ref="I712:J712"/>
-    <mergeCell ref="F800:G800"/>
-    <mergeCell ref="F783:G783"/>
-    <mergeCell ref="C780:F780"/>
-    <mergeCell ref="A563:L563"/>
-    <mergeCell ref="I753:K753"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="H750:I750"/>
-    <mergeCell ref="A733:L733"/>
-    <mergeCell ref="I649:J649"/>
-    <mergeCell ref="B755:C755"/>
-    <mergeCell ref="I527:J527"/>
-    <mergeCell ref="I556:J556"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="B584:C584"/>
-    <mergeCell ref="I613:K613"/>
-    <mergeCell ref="F613:G613"/>
-    <mergeCell ref="I601:J601"/>
-    <mergeCell ref="I602:J602"/>
-    <mergeCell ref="I528:J528"/>
-    <mergeCell ref="B645:C645"/>
-    <mergeCell ref="C718:F718"/>
-    <mergeCell ref="I680:J680"/>
-    <mergeCell ref="I663:J663"/>
-    <mergeCell ref="F537:G537"/>
-    <mergeCell ref="I575:J575"/>
-    <mergeCell ref="F643:G643"/>
-    <mergeCell ref="T202:Y202"/>
-    <mergeCell ref="T337:Y337"/>
-    <mergeCell ref="T518:Y518"/>
-    <mergeCell ref="T232:Y232"/>
-    <mergeCell ref="O458:R458"/>
-    <mergeCell ref="T382:Y382"/>
-    <mergeCell ref="T397:Y397"/>
-    <mergeCell ref="O397:R397"/>
-    <mergeCell ref="O518:R518"/>
-    <mergeCell ref="O503:R503"/>
-    <mergeCell ref="T247:Y247"/>
-    <mergeCell ref="T217:Y217"/>
-    <mergeCell ref="T292:Y292"/>
-    <mergeCell ref="T367:Y367"/>
-    <mergeCell ref="O352:R352"/>
-    <mergeCell ref="O232:R232"/>
-    <mergeCell ref="O322:R322"/>
-    <mergeCell ref="O382:R382"/>
-    <mergeCell ref="O262:R262"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="I679:J679"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I567:K567"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="I161:K161"/>
-    <mergeCell ref="F582:G582"/>
-    <mergeCell ref="H579:I579"/>
-    <mergeCell ref="I675:K675"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I330:J330"/>
-    <mergeCell ref="I500:J500"/>
-    <mergeCell ref="I552:K552"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="A609:L609"/>
-    <mergeCell ref="B434:C434"/>
-    <mergeCell ref="T563:Y563"/>
-    <mergeCell ref="T262:Y262"/>
-    <mergeCell ref="O292:R292"/>
-    <mergeCell ref="O337:R337"/>
-    <mergeCell ref="I360:J360"/>
-    <mergeCell ref="T473:Y473"/>
-    <mergeCell ref="T428:Y428"/>
-    <mergeCell ref="O473:R473"/>
-    <mergeCell ref="T533:Y533"/>
-    <mergeCell ref="T443:Y443"/>
-    <mergeCell ref="T503:Y503"/>
-    <mergeCell ref="O428:R428"/>
-    <mergeCell ref="T488:Y488"/>
-    <mergeCell ref="T458:Y458"/>
-    <mergeCell ref="I425:J425"/>
-    <mergeCell ref="I439:J439"/>
-    <mergeCell ref="I440:J440"/>
-    <mergeCell ref="I454:J454"/>
-    <mergeCell ref="I455:J455"/>
-    <mergeCell ref="I469:J469"/>
-    <mergeCell ref="I499:J499"/>
-    <mergeCell ref="I318:J318"/>
-    <mergeCell ref="I319:J319"/>
-    <mergeCell ref="I333:J333"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="A142:L142"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="T609:Y609"/>
-    <mergeCell ref="I526:J526"/>
-    <mergeCell ref="I361:J361"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="I537:K537"/>
-    <mergeCell ref="H474:I474"/>
-    <mergeCell ref="I272:J272"/>
-    <mergeCell ref="I482:J482"/>
-    <mergeCell ref="C278:F278"/>
-    <mergeCell ref="I432:K432"/>
-    <mergeCell ref="I390:J390"/>
-    <mergeCell ref="I391:J391"/>
-    <mergeCell ref="I392:J392"/>
-    <mergeCell ref="I468:J468"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F447:G447"/>
-    <mergeCell ref="A277:L277"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="I341:K341"/>
-    <mergeCell ref="I451:J451"/>
-    <mergeCell ref="I452:J452"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I176:K176"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="A187:L187"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="A157:L157"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="A97:L97"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="T127:Y127"/>
-    <mergeCell ref="T157:Y157"/>
-    <mergeCell ref="O142:R142"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T112:Y112"/>
-    <mergeCell ref="T172:Y172"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="T187:Y187"/>
-    <mergeCell ref="B802:C802"/>
-    <mergeCell ref="B677:C677"/>
-    <mergeCell ref="H610:I610"/>
-    <mergeCell ref="I772:J772"/>
-    <mergeCell ref="I743:J743"/>
-    <mergeCell ref="F356:G356"/>
-    <mergeCell ref="I470:J470"/>
-    <mergeCell ref="I484:J484"/>
-    <mergeCell ref="C474:F474"/>
-    <mergeCell ref="A473:L473"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="B615:C615"/>
-    <mergeCell ref="I726:J726"/>
-    <mergeCell ref="F659:G659"/>
-    <mergeCell ref="I659:K659"/>
-    <mergeCell ref="H594:I594"/>
-    <mergeCell ref="A687:L687"/>
-    <mergeCell ref="A702:L702"/>
-    <mergeCell ref="I573:J573"/>
-    <mergeCell ref="F417:G417"/>
-    <mergeCell ref="B494:C494"/>
-    <mergeCell ref="C797:F797"/>
-    <mergeCell ref="H797:I797"/>
-    <mergeCell ref="I725:J725"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="I101:K101"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="I226:J226"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C158:F158"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="C143:F143"/>
-    <mergeCell ref="A217:L217"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B599:C599"/>
-    <mergeCell ref="H625:I625"/>
-    <mergeCell ref="H564:I564"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="I632:J632"/>
-    <mergeCell ref="I619:J619"/>
-    <mergeCell ref="I617:J617"/>
-    <mergeCell ref="C564:F564"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="C519:F519"/>
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="F567:G567"/>
-    <mergeCell ref="I589:J589"/>
-    <mergeCell ref="I590:J590"/>
-    <mergeCell ref="I604:J604"/>
-    <mergeCell ref="I605:J605"/>
-    <mergeCell ref="I620:J620"/>
-    <mergeCell ref="I621:J621"/>
-    <mergeCell ref="A578:L578"/>
-    <mergeCell ref="I588:J588"/>
-    <mergeCell ref="F597:G597"/>
-    <mergeCell ref="I597:K597"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="I347:J347"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="H398:I398"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="A322:L322"/>
-    <mergeCell ref="B539:C539"/>
-    <mergeCell ref="I541:J541"/>
-    <mergeCell ref="I334:J334"/>
-    <mergeCell ref="I348:J348"/>
-    <mergeCell ref="I349:J349"/>
-    <mergeCell ref="I363:J363"/>
-    <mergeCell ref="I364:J364"/>
-    <mergeCell ref="I378:J378"/>
-    <mergeCell ref="I379:J379"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="I394:J394"/>
-    <mergeCell ref="I408:J408"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I424:J424"/>
-    <mergeCell ref="I405:J405"/>
-    <mergeCell ref="A397:L397"/>
-    <mergeCell ref="I401:K401"/>
-    <mergeCell ref="H414:I414"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="I522:K522"/>
-    <mergeCell ref="I498:J498"/>
-    <mergeCell ref="I466:J466"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="I371:K371"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="B464:C464"/>
-    <mergeCell ref="C323:F323"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="I296:K296"/>
-    <mergeCell ref="I326:K326"/>
-    <mergeCell ref="I331:J331"/>
-    <mergeCell ref="I332:J332"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="A352:L352"/>
-    <mergeCell ref="I406:J406"/>
-    <mergeCell ref="I356:K356"/>
-    <mergeCell ref="I288:J288"/>
-    <mergeCell ref="I514:J514"/>
-    <mergeCell ref="I515:J515"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="O247:R247"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="I417:K417"/>
-    <mergeCell ref="H338:I338"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="A307:L307"/>
-    <mergeCell ref="I300:J300"/>
-    <mergeCell ref="I285:J285"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="A292:L292"/>
-    <mergeCell ref="I286:J286"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="H368:I368"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="I221:K221"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="I225:J225"/>
-    <mergeCell ref="I800:K800"/>
-    <mergeCell ref="B739:C739"/>
-    <mergeCell ref="I774:J774"/>
-    <mergeCell ref="H656:I656"/>
-    <mergeCell ref="I757:J757"/>
-    <mergeCell ref="F706:G706"/>
-    <mergeCell ref="C489:F489"/>
-    <mergeCell ref="I681:J681"/>
-    <mergeCell ref="F675:G675"/>
-    <mergeCell ref="I587:J587"/>
-    <mergeCell ref="C625:F625"/>
-    <mergeCell ref="A518:L518"/>
-    <mergeCell ref="C579:F579"/>
-    <mergeCell ref="I497:J497"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="I558:J558"/>
-    <mergeCell ref="B554:C554"/>
-    <mergeCell ref="B630:C630"/>
-    <mergeCell ref="I542:J542"/>
-    <mergeCell ref="I557:J557"/>
-    <mergeCell ref="I603:J603"/>
-    <mergeCell ref="C594:F594"/>
-    <mergeCell ref="I710:J710"/>
-    <mergeCell ref="C703:F703"/>
-    <mergeCell ref="T624:Y624"/>
-    <mergeCell ref="I741:J741"/>
-    <mergeCell ref="I759:J759"/>
-    <mergeCell ref="I768:K768"/>
-    <mergeCell ref="O717:R717"/>
-    <mergeCell ref="T717:Y717"/>
-    <mergeCell ref="T671:Y671"/>
-    <mergeCell ref="T639:Y639"/>
-    <mergeCell ref="A779:L779"/>
-    <mergeCell ref="T702:Y702"/>
-    <mergeCell ref="T749:Y749"/>
-    <mergeCell ref="F768:G768"/>
-    <mergeCell ref="T764:Y764"/>
-    <mergeCell ref="T779:Y779"/>
-    <mergeCell ref="O779:R779"/>
-    <mergeCell ref="I773:J773"/>
-    <mergeCell ref="B770:C770"/>
-    <mergeCell ref="O639:R639"/>
-    <mergeCell ref="O671:R671"/>
-    <mergeCell ref="O749:R749"/>
-    <mergeCell ref="A639:L639"/>
-    <mergeCell ref="A717:L717"/>
-    <mergeCell ref="B723:C723"/>
-    <mergeCell ref="I665:J665"/>
-    <mergeCell ref="O593:R593"/>
-    <mergeCell ref="O733:R733"/>
-    <mergeCell ref="B693:C693"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="O828:R828"/>
-    <mergeCell ref="F832:G832"/>
-    <mergeCell ref="H813:I813"/>
-    <mergeCell ref="I783:K783"/>
-    <mergeCell ref="F737:G737"/>
-    <mergeCell ref="I788:J788"/>
-    <mergeCell ref="A764:L764"/>
-    <mergeCell ref="O812:R812"/>
-    <mergeCell ref="B785:C785"/>
-    <mergeCell ref="I787:J787"/>
-    <mergeCell ref="I789:J789"/>
-    <mergeCell ref="C691:E691"/>
-    <mergeCell ref="I695:J695"/>
-    <mergeCell ref="I696:J696"/>
-    <mergeCell ref="O796:R796"/>
-    <mergeCell ref="F721:G721"/>
-    <mergeCell ref="F753:G753"/>
-    <mergeCell ref="I721:K721"/>
-    <mergeCell ref="O609:R609"/>
-    <mergeCell ref="I648:J648"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="A624:L624"/>
-    <mergeCell ref="A749:L749"/>
-    <mergeCell ref="F691:G691"/>
-    <mergeCell ref="I691:K691"/>
-    <mergeCell ref="H688:I688"/>
-    <mergeCell ref="F628:G628"/>
-    <mergeCell ref="I758:J758"/>
-    <mergeCell ref="I742:J742"/>
-    <mergeCell ref="I647:J647"/>
-    <mergeCell ref="I697:J697"/>
-    <mergeCell ref="C640:F640"/>
-    <mergeCell ref="H640:I640"/>
-    <mergeCell ref="I628:K628"/>
-    <mergeCell ref="C656:F656"/>
-    <mergeCell ref="A655:L655"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="I635:J635"/>
-    <mergeCell ref="I636:J636"/>
-    <mergeCell ref="I650:J650"/>
-    <mergeCell ref="I633:J633"/>
-    <mergeCell ref="I664:J664"/>
-    <mergeCell ref="I643:K643"/>
-    <mergeCell ref="I728:J728"/>
-    <mergeCell ref="O702:R702"/>
-    <mergeCell ref="B661:C661"/>
-    <mergeCell ref="C734:F734"/>
-    <mergeCell ref="O764:R764"/>
-    <mergeCell ref="H703:I703"/>
-    <mergeCell ref="H672:I672"/>
-    <mergeCell ref="A671:L671"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="C414:F414"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="I377:J377"/>
-    <mergeCell ref="O413:R413"/>
-    <mergeCell ref="I386:K386"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="I375:J375"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="A413:L413"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="O217:R217"/>
-    <mergeCell ref="A202:L202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="O172:R172"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I634:J634"/>
-    <mergeCell ref="A533:L533"/>
-    <mergeCell ref="I543:J543"/>
-    <mergeCell ref="C429:F429"/>
-    <mergeCell ref="C504:F504"/>
-    <mergeCell ref="H504:I504"/>
-    <mergeCell ref="F507:G507"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="I507:K507"/>
-    <mergeCell ref="T413:Y413"/>
-    <mergeCell ref="C353:F353"/>
-    <mergeCell ref="I362:J362"/>
-    <mergeCell ref="C338:F338"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="O624:R624"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I146:K146"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T322:Y322"/>
-    <mergeCell ref="T307:Y307"/>
-    <mergeCell ref="T277:Y277"/>
-    <mergeCell ref="T352:Y352"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="C248:F248"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="H353:I353"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I251:K251"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="I227:J227"/>
-    <mergeCell ref="O202:R202"/>
-    <mergeCell ref="O187:R187"/>
-    <mergeCell ref="O157:R157"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="I273:J273"/>
-    <mergeCell ref="I274:J274"/>
-    <mergeCell ref="T828:Y828"/>
-    <mergeCell ref="T812:Y812"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="O563:R563"/>
-    <mergeCell ref="O548:R548"/>
-    <mergeCell ref="O443:R443"/>
-    <mergeCell ref="H549:I549"/>
-    <mergeCell ref="O488:R488"/>
-    <mergeCell ref="O533:R533"/>
-    <mergeCell ref="T796:Y796"/>
-    <mergeCell ref="A232:L232"/>
-    <mergeCell ref="I242:J242"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="I236:K236"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="O367:R367"/>
-    <mergeCell ref="A262:L262"/>
-    <mergeCell ref="I266:K266"/>
-    <mergeCell ref="I346:J346"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I311:K311"/>
-    <mergeCell ref="A337:L337"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="I316:J316"/>
-    <mergeCell ref="I196:J196"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="O307:R307"/>
-    <mergeCell ref="I301:J301"/>
-    <mergeCell ref="O277:R277"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="A247:L247"/>
-    <mergeCell ref="C263:F263"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="I270:J270"/>
-    <mergeCell ref="I315:J315"/>
-    <mergeCell ref="I302:J302"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="C293:F293"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="O655:R655"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="I511:J511"/>
-    <mergeCell ref="I512:J512"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="A382:L382"/>
-    <mergeCell ref="O578:R578"/>
-    <mergeCell ref="I586:J586"/>
-    <mergeCell ref="I582:K582"/>
-    <mergeCell ref="H489:I489"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="I492:K492"/>
-    <mergeCell ref="I421:J421"/>
-    <mergeCell ref="C549:F549"/>
-    <mergeCell ref="I618:J618"/>
-    <mergeCell ref="I423:J423"/>
-    <mergeCell ref="A443:L443"/>
-    <mergeCell ref="A458:L458"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="I462:K462"/>
-    <mergeCell ref="A428:L428"/>
-    <mergeCell ref="I438:J438"/>
-    <mergeCell ref="H459:I459"/>
-    <mergeCell ref="A593:L593"/>
-    <mergeCell ref="I853:J853"/>
-    <mergeCell ref="I854:J854"/>
-    <mergeCell ref="I855:J855"/>
-    <mergeCell ref="I856:J856"/>
-    <mergeCell ref="A844:L844"/>
-    <mergeCell ref="O844:R844"/>
-    <mergeCell ref="T844:Y844"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="H845:I845"/>
-    <mergeCell ref="F848:G848"/>
-    <mergeCell ref="I848:K848"/>
-    <mergeCell ref="B850:C850"/>
-    <mergeCell ref="I852:J852"/>
+    <mergeCell ref="I869:J869"/>
+    <mergeCell ref="I870:J870"/>
+    <mergeCell ref="I871:J871"/>
+    <mergeCell ref="I872:J872"/>
+    <mergeCell ref="A860:L860"/>
+    <mergeCell ref="O860:R860"/>
+    <mergeCell ref="T860:Y860"/>
+    <mergeCell ref="C861:F861"/>
+    <mergeCell ref="H861:I861"/>
+    <mergeCell ref="F864:G864"/>
+    <mergeCell ref="I864:K864"/>
+    <mergeCell ref="B866:C866"/>
+    <mergeCell ref="I868:J868"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -52671,14 +52676,14 @@
       </c>
       <c r="P8" s="111">
         <f>'Salary Sheets'!Q45</f>
-        <v>348995.96774193551</v>
+        <v>356052.41935483867</v>
       </c>
       <c r="Q8" s="111">
         <v>201483.87096774194</v>
       </c>
       <c r="R8" s="111">
         <f t="shared" si="0"/>
-        <v>-147512.09677419357</v>
+        <v>-154568.54838709673</v>
       </c>
       <c r="S8" s="69"/>
       <c r="T8" s="11"/>
@@ -53223,7 +53228,7 @@
       <c r="A3" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="438" t="s">
+      <c r="B3" s="446" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="252">
@@ -53241,7 +53246,7 @@
       <c r="A4" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="439"/>
+      <c r="B4" s="447"/>
       <c r="C4" s="252">
         <v>25000</v>
       </c>
@@ -53257,7 +53262,7 @@
       <c r="A5" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="439"/>
+      <c r="B5" s="447"/>
       <c r="C5" s="252">
         <v>32500</v>
       </c>
@@ -53273,7 +53278,7 @@
       <c r="A6" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="440"/>
+      <c r="B6" s="448"/>
       <c r="C6" s="252">
         <v>21000</v>
       </c>
@@ -53289,7 +53294,7 @@
       <c r="A7" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="451" t="s">
+      <c r="B7" s="458" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="111">
@@ -53307,7 +53312,7 @@
       <c r="A8" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="452"/>
+      <c r="B8" s="459"/>
       <c r="C8" s="112">
         <v>55000</v>
       </c>
@@ -53323,7 +53328,7 @@
       <c r="A9" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="452"/>
+      <c r="B9" s="459"/>
       <c r="C9" s="112">
         <v>30000</v>
       </c>
@@ -53339,7 +53344,7 @@
       <c r="A10" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="452"/>
+      <c r="B10" s="459"/>
       <c r="C10" s="112">
         <v>38000</v>
       </c>
@@ -53355,7 +53360,7 @@
       <c r="A11" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="452"/>
+      <c r="B11" s="459"/>
       <c r="C11" s="112">
         <v>28000</v>
       </c>
@@ -53371,7 +53376,7 @@
       <c r="A12" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="452"/>
+      <c r="B12" s="459"/>
       <c r="C12" s="112">
         <v>22000</v>
       </c>
@@ -53387,7 +53392,7 @@
       <c r="A13" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="452"/>
+      <c r="B13" s="459"/>
       <c r="C13" s="112">
         <v>24000</v>
       </c>
@@ -53403,7 +53408,7 @@
       <c r="A14" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="452"/>
+      <c r="B14" s="459"/>
       <c r="C14" s="263">
         <v>27000</v>
       </c>
@@ -53419,7 +53424,7 @@
       <c r="A15" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="437" t="s">
+      <c r="B15" s="445" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="265">
@@ -53437,7 +53442,7 @@
       <c r="A16" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="437"/>
+      <c r="B16" s="445"/>
       <c r="C16" s="265">
         <v>27500</v>
       </c>
@@ -53453,7 +53458,7 @@
       <c r="A17" s="264" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="437"/>
+      <c r="B17" s="445"/>
       <c r="C17" s="265">
         <v>22500</v>
       </c>
@@ -53469,7 +53474,7 @@
       <c r="A18" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="437"/>
+      <c r="B18" s="445"/>
       <c r="C18" s="265">
         <v>22500</v>
       </c>
@@ -53485,7 +53490,7 @@
       <c r="A19" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="441">
+      <c r="B19" s="449">
         <v>45017</v>
       </c>
       <c r="C19" s="265">
@@ -53503,7 +53508,7 @@
       <c r="A20" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="441"/>
+      <c r="B20" s="449"/>
       <c r="C20" s="265">
         <v>19000</v>
       </c>
@@ -53519,7 +53524,7 @@
       <c r="A21" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="441"/>
+      <c r="B21" s="449"/>
       <c r="C21" s="265">
         <v>47000</v>
       </c>
@@ -53553,7 +53558,7 @@
       <c r="A23" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="450" t="s">
+      <c r="B23" s="457" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="265">
@@ -53571,7 +53576,7 @@
       <c r="A24" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="450"/>
+      <c r="B24" s="457"/>
       <c r="C24" s="265">
         <v>27000</v>
       </c>
@@ -53587,7 +53592,7 @@
       <c r="A25" s="264" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="450"/>
+      <c r="B25" s="457"/>
       <c r="C25" s="265">
         <v>34500</v>
       </c>
@@ -53603,7 +53608,7 @@
       <c r="A26" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="450"/>
+      <c r="B26" s="457"/>
       <c r="C26" s="265">
         <v>22000</v>
       </c>
@@ -53619,7 +53624,7 @@
       <c r="A27" s="264" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="447" t="s">
+      <c r="B27" s="454" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="265">
@@ -53637,7 +53642,7 @@
       <c r="A28" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="448"/>
+      <c r="B28" s="455"/>
       <c r="C28" s="265">
         <v>25000</v>
       </c>
@@ -53653,7 +53658,7 @@
       <c r="A29" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="448"/>
+      <c r="B29" s="455"/>
       <c r="C29" s="265">
         <v>30000</v>
       </c>
@@ -53669,7 +53674,7 @@
       <c r="A30" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="449"/>
+      <c r="B30" s="456"/>
       <c r="C30" s="265">
         <v>50000</v>
       </c>
@@ -53685,7 +53690,7 @@
       <c r="A31" s="313" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="444" t="s">
+      <c r="B31" s="451" t="s">
         <v>207</v>
       </c>
       <c r="C31" s="314">
@@ -53703,7 +53708,7 @@
       <c r="A32" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="445"/>
+      <c r="B32" s="452"/>
       <c r="C32" s="314">
         <v>38000</v>
       </c>
@@ -53719,7 +53724,7 @@
       <c r="A33" s="313" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="445"/>
+      <c r="B33" s="452"/>
       <c r="C33" s="314">
         <v>45000</v>
       </c>
@@ -53735,7 +53740,7 @@
       <c r="A34" s="313" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="445"/>
+      <c r="B34" s="452"/>
       <c r="C34" s="314">
         <v>32000</v>
       </c>
@@ -53751,7 +53756,7 @@
       <c r="A35" s="313" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="445"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="314">
         <v>23000</v>
       </c>
@@ -53767,7 +53772,7 @@
       <c r="A36" s="313" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="445"/>
+      <c r="B36" s="452"/>
       <c r="C36" s="314">
         <v>22000</v>
       </c>
@@ -53783,7 +53788,7 @@
       <c r="A37" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="445"/>
+      <c r="B37" s="452"/>
       <c r="C37" s="265">
         <v>30000</v>
       </c>
@@ -53799,7 +53804,7 @@
       <c r="A38" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="445"/>
+      <c r="B38" s="452"/>
       <c r="C38" s="265">
         <v>29500</v>
       </c>
@@ -53815,7 +53820,7 @@
       <c r="A39" s="264" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="445"/>
+      <c r="B39" s="452"/>
       <c r="C39" s="265">
         <v>24500</v>
       </c>
@@ -53831,7 +53836,7 @@
       <c r="A40" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="446"/>
+      <c r="B40" s="453"/>
       <c r="C40" s="265">
         <v>24500</v>
       </c>
@@ -53865,7 +53870,7 @@
       <c r="A42" s="264" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="443"/>
+      <c r="B42" s="450"/>
       <c r="C42" s="265">
         <v>65000</v>
       </c>
@@ -53967,7 +53972,7 @@
       <c r="A48" s="264" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="455">
+      <c r="B48" s="439">
         <v>45292</v>
       </c>
       <c r="C48" s="314">
@@ -53986,7 +53991,7 @@
       <c r="A49" s="264" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="457"/>
+      <c r="B49" s="441"/>
       <c r="C49" s="314">
         <v>35000</v>
       </c>
@@ -54002,7 +54007,7 @@
       <c r="A50" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="457"/>
+      <c r="B50" s="441"/>
       <c r="C50" s="314">
         <v>35000</v>
       </c>
@@ -54018,7 +54023,7 @@
       <c r="A51" s="264" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="457"/>
+      <c r="B51" s="441"/>
       <c r="C51" s="314">
         <v>25000</v>
       </c>
@@ -54034,7 +54039,7 @@
       <c r="A52" s="313" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="455">
+      <c r="B52" s="439">
         <v>45292</v>
       </c>
       <c r="C52" s="314">
@@ -54052,7 +54057,7 @@
       <c r="A53" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="456"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="314">
         <v>45000</v>
       </c>
@@ -54068,7 +54073,7 @@
       <c r="A54" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="456"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="314">
         <v>35000</v>
       </c>
@@ -54084,7 +54089,7 @@
       <c r="A55" s="264" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="453">
+      <c r="B55" s="437">
         <v>45383</v>
       </c>
       <c r="C55" s="265">
@@ -54102,7 +54107,7 @@
       <c r="A56" s="264" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="454"/>
+      <c r="B56" s="438"/>
       <c r="C56" s="265">
         <v>40000</v>
       </c>
@@ -54118,7 +54123,7 @@
       <c r="A57" s="264" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="454"/>
+      <c r="B57" s="438"/>
       <c r="C57" s="265">
         <v>60000</v>
       </c>
@@ -54134,7 +54139,7 @@
       <c r="A58" s="313" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="454"/>
+      <c r="B58" s="438"/>
       <c r="C58" s="314">
         <v>60000</v>
       </c>
@@ -54150,7 +54155,7 @@
       <c r="A59" s="361" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="458">
+      <c r="B59" s="443">
         <v>45413</v>
       </c>
       <c r="C59" s="362">
@@ -54168,7 +54173,7 @@
       <c r="A60" s="361" t="s">
         <v>237</v>
       </c>
-      <c r="B60" s="459"/>
+      <c r="B60" s="444"/>
       <c r="C60" s="362">
         <v>45000</v>
       </c>
@@ -54184,7 +54189,7 @@
       <c r="A61" s="361" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="459"/>
+      <c r="B61" s="444"/>
       <c r="C61" s="362">
         <v>37500</v>
       </c>
@@ -54200,7 +54205,7 @@
       <c r="A62" s="361" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="459"/>
+      <c r="B62" s="444"/>
       <c r="C62" s="362">
         <v>22000</v>
       </c>
@@ -54216,7 +54221,7 @@
       <c r="A63" s="361" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="459"/>
+      <c r="B63" s="444"/>
       <c r="C63" s="362">
         <v>35000</v>
       </c>
@@ -54232,7 +54237,7 @@
       <c r="A64" s="361" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="459"/>
+      <c r="B64" s="444"/>
       <c r="C64" s="362">
         <v>43000</v>
       </c>
@@ -54247,11 +54252,6 @@
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}"/>
   <mergeCells count="14">
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B59:B64"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B3:B6"/>
@@ -54261,6 +54261,11 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B59:B64"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
